--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1760917.265334925</v>
+        <v>1706513.999389827</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3258380.312740268</v>
+        <v>3264929.024393746</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10851725.66926811</v>
+        <v>10831192.04480717</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6410186.732535311</v>
+        <v>6412304.439797222</v>
       </c>
     </row>
     <row r="11">
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="F17" t="n">
-        <v>94.44505313032468</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="G17" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>107.2264454249827</v>
+        <v>98.89608252643029</v>
       </c>
       <c r="I17" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>98.93706022059013</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="D18" t="n">
-        <v>95.16621054594503</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>105.3662254367072</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.79035737469016</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>62.84500683012751</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.95658921780274</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>92.64750751359827</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>97.6834152976528</v>
       </c>
       <c r="E19" t="n">
-        <v>94.15510762787545</v>
+        <v>95.50190492600962</v>
       </c>
       <c r="F19" t="n">
-        <v>93.14219300423753</v>
+        <v>94.48899030237169</v>
       </c>
       <c r="G19" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.37419792319437</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>35.22998553113484</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>85.30011715669592</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>94.44505313032474</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>98.93706022059013</v>
       </c>
       <c r="S20" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>107.2264454249827</v>
+        <v>98.89608252643031</v>
       </c>
       <c r="U20" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>85.06466214451692</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.95658921780274</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>56.65024719298771</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>92.64750751359827</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>100.1497274493677</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>97.6834152976528</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.08032509797905</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.36472803234563</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>189.0613735810558</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>213.7516647337563</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>10.2692177241448</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
@@ -2411,10 +2411,10 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>18.01976440710026</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>116.2860629258893</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>23.22149787528878</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>175.1459754516825</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>139.3500897925492</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>79.60211320473238</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.37534949722421</v>
+        <v>27.16547464445851</v>
       </c>
       <c r="C27" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>44.91137824074075</v>
@@ -2651,7 +2651,7 @@
         <v>37.1856830105675</v>
       </c>
       <c r="H27" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V27" t="n">
-        <v>60.92571967314019</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W27" t="n">
         <v>151.5371490082765</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.49209725450509</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U28" t="n">
         <v>186.1611952038477</v>
@@ -2778,10 +2778,10 @@
         <v>186.3651641839479</v>
       </c>
       <c r="X28" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.00415978767548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S29" t="n">
-        <v>92.49155165621401</v>
+        <v>28.43500943206532</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E30" t="n">
-        <v>57.48724630275781</v>
+        <v>23.05618469305271</v>
       </c>
       <c r="F30" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>11.88591371140616</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V30" t="n">
         <v>132.6427529967821</v>
@@ -2952,7 +2952,7 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C31" t="n">
-        <v>39.19929879862547</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>123.8587638843291</v>
       </c>
       <c r="T31" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>70.28925602862385</v>
       </c>
       <c r="V31" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y31" t="n">
         <v>118.4268191994517</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>214.647336036621</v>
+        <v>57.78176484845129</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>95.9941671074142</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.38739547815797</v>
       </c>
       <c r="S32" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>92.27674823130683</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>213.2705360071432</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>60.47305475181928</v>
+        <v>58.22677652532403</v>
       </c>
       <c r="D33" t="n">
-        <v>6.496062340212293</v>
+        <v>32.96334310164704</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>43.16335799240923</v>
       </c>
       <c r="F33" t="n">
-        <v>32.83376815688742</v>
+        <v>3.65093949763188</v>
       </c>
       <c r="G33" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.44772686734136</v>
+        <v>57.20144864084611</v>
       </c>
       <c r="T33" t="n">
-        <v>87.92928445832514</v>
+        <v>85.68300623182989</v>
       </c>
       <c r="U33" t="n">
-        <v>113.7059378444784</v>
+        <v>111.4596596179831</v>
       </c>
       <c r="V33" t="n">
-        <v>120.5651429129288</v>
+        <v>118.3188646864336</v>
       </c>
       <c r="W33" t="n">
-        <v>139.4595389244232</v>
+        <v>137.2132606979279</v>
       </c>
       <c r="X33" t="n">
-        <v>93.53754096698101</v>
+        <v>91.29126274048576</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.4472515408079</v>
+        <v>91.20097331431265</v>
       </c>
     </row>
     <row r="34">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>30.33939413524728</v>
       </c>
       <c r="G34" t="n">
-        <v>17.95480074435671</v>
+        <v>53.50925689546705</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.74545004444786</v>
       </c>
       <c r="I34" t="n">
-        <v>43.21503069076182</v>
+        <v>40.96875246426657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>62.81166891417777</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>113.4638669652898</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0835851199944</v>
+        <v>171.8373068934992</v>
       </c>
       <c r="V34" t="n">
-        <v>139.9021990873316</v>
+        <v>137.6559208608363</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>172.0412758735993</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>67.89982663120119</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="I35" t="n">
-        <v>98.24044533390945</v>
+        <v>95.9941671074142</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>35.38739547815797</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>94.53834712325363</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>108.6141271011396</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>53.18725454249307</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.29773941337088</v>
+        <v>52.05146118687563</v>
       </c>
       <c r="C36" t="n">
-        <v>60.47305475181928</v>
+        <v>58.22677652532403</v>
       </c>
       <c r="D36" t="n">
-        <v>35.20962132814229</v>
+        <v>32.96334310164704</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>32.83376815688742</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>25.10807292671417</v>
+        <v>22.86179470021892</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.44772686734136</v>
+        <v>57.20144864084611</v>
       </c>
       <c r="T36" t="n">
-        <v>87.92928445832514</v>
+        <v>85.68300623182989</v>
       </c>
       <c r="U36" t="n">
-        <v>30.69463944317753</v>
+        <v>83.36070122092961</v>
       </c>
       <c r="V36" t="n">
-        <v>120.5651429129288</v>
+        <v>118.3188646864336</v>
       </c>
       <c r="W36" t="n">
-        <v>139.4595389244232</v>
+        <v>137.2132606979279</v>
       </c>
       <c r="X36" t="n">
-        <v>93.53754096698101</v>
+        <v>91.29126274048576</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.4472515408079</v>
+        <v>91.20097331431265</v>
       </c>
     </row>
     <row r="37">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>65.35025771894558</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.13375055522064</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>53.50925689546705</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>47.74545004444786</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>40.96875246426657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>62.81166891417777</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>109.5348755739805</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>113.4638669652898</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>171.8373068934992</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>19.78977409549073</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>111.2279329260454</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.84271895286672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="E38" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.85197060901351</v>
       </c>
       <c r="S38" t="n">
-        <v>41.08319042069946</v>
+        <v>133.0029222541092</v>
       </c>
       <c r="T38" t="n">
-        <v>147.9781831603563</v>
+        <v>20.2504650023437</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>175.3285055757003</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91.41551724609224</v>
+        <v>90.51603631773116</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>96.69135165617956</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>71.42791823250258</v>
       </c>
       <c r="E39" t="n">
-        <v>82.52741405162584</v>
+        <v>81.62793312326477</v>
       </c>
       <c r="F39" t="n">
-        <v>27.10761503768363</v>
+        <v>69.0520650612477</v>
       </c>
       <c r="G39" t="n">
-        <v>62.22585075943553</v>
+        <v>61.32636983107446</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.3794855192789</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>124.1475813626854</v>
       </c>
       <c r="U39" t="n">
-        <v>150.8237156771997</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>157.6829207456502</v>
+        <v>156.7834398172891</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>65.42071212557745</v>
       </c>
       <c r="X39" t="n">
-        <v>130.6553187997024</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>130.5650293735293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>17.36897107151045</v>
       </c>
       <c r="T40" t="n">
-        <v>127.8236087508506</v>
+        <v>151.9284420961453</v>
       </c>
       <c r="U40" t="n">
-        <v>211.2013629527158</v>
+        <v>210.3018820243547</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>176.1204959916918</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4053319328159</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>94.61632045073104</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>96.56246126485408</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="T41" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>108.0382594292923</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.799306354903</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>105.2379047074664</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.92878756020085</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>46.85117747634752</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="T42" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>98.82075565759796</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>93.12730597027357</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.05252344037716</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.85538657539878</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4208906116384</v>
+        <v>38.56550470809679</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.61632045073104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>95.81684112473631</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>94.61632045073101</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>94.61632045073104</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>48.96566364838879</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>46.85117747634752</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="W45" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
     </row>
     <row r="46">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.61632045073104</v>
+        <v>108.78387956941</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>95.30881634191675</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.4208906116384</v>
+        <v>0.5080247828195342</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="C17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="D17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="E17" t="n">
-        <v>428.9057816999306</v>
+        <v>214.55800007105</v>
       </c>
       <c r="F17" t="n">
-        <v>333.5067381339461</v>
+        <v>108.3098836736539</v>
       </c>
       <c r="G17" t="n">
-        <v>225.1971973006303</v>
+        <v>108.3098836736539</v>
       </c>
       <c r="H17" t="n">
-        <v>116.8876564673144</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="I17" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J17" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K17" t="n">
-        <v>111.593121544921</v>
+        <v>111.4298567295961</v>
       </c>
       <c r="L17" t="n">
-        <v>217.7473025156538</v>
+        <v>111.4298567295961</v>
       </c>
       <c r="M17" t="n">
-        <v>323.9014834863866</v>
+        <v>122.8149278794619</v>
       </c>
       <c r="N17" t="n">
-        <v>339.2457264078797</v>
+        <v>226.9487067605498</v>
       </c>
       <c r="O17" t="n">
-        <v>339.2457264078797</v>
+        <v>331.0824856416378</v>
       </c>
       <c r="P17" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="Q17" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="R17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="S17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="T17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="U17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="V17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="W17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="X17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="Y17" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>428.9057816999306</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="C18" t="n">
-        <v>428.9057816999306</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="D18" t="n">
-        <v>332.7782962999862</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="E18" t="n">
-        <v>226.3477655558374</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6201318440292</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="G18" t="n">
-        <v>69.14032696511249</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="H18" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="I18" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J18" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K18" t="n">
-        <v>114.7322966047314</v>
+        <v>38.94664577709561</v>
       </c>
       <c r="L18" t="n">
-        <v>147.2028612451357</v>
+        <v>38.94664577709561</v>
       </c>
       <c r="M18" t="n">
-        <v>147.2028612451357</v>
+        <v>143.0804246581836</v>
       </c>
       <c r="N18" t="n">
-        <v>147.2028612451357</v>
+        <v>247.2142035392715</v>
       </c>
       <c r="O18" t="n">
-        <v>253.3570422158685</v>
+        <v>247.2142035392715</v>
       </c>
       <c r="P18" t="n">
-        <v>359.5112231866013</v>
+        <v>351.3479824203595</v>
       </c>
       <c r="Q18" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="R18" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="S18" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="T18" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="U18" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="V18" t="n">
-        <v>428.9057816999306</v>
+        <v>208.2463081388965</v>
       </c>
       <c r="W18" t="n">
-        <v>428.9057816999306</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="X18" t="n">
-        <v>428.9057816999306</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="Y18" t="n">
-        <v>428.9057816999306</v>
+        <v>114.6629672160699</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="C19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="D19" t="n">
-        <v>428.9057816999306</v>
+        <v>200.3248459988569</v>
       </c>
       <c r="E19" t="n">
-        <v>333.7996123788443</v>
+        <v>103.858275366524</v>
       </c>
       <c r="F19" t="n">
-        <v>239.7165891422407</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="G19" t="n">
-        <v>131.4070483089249</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="H19" t="n">
-        <v>23.09750747560909</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="I19" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J19" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K19" t="n">
-        <v>38.28738519488138</v>
+        <v>36.7907910544037</v>
       </c>
       <c r="L19" t="n">
-        <v>117.3575766711012</v>
+        <v>114.5276532054706</v>
       </c>
       <c r="M19" t="n">
-        <v>208.3016813318301</v>
+        <v>204.1384285410467</v>
       </c>
       <c r="N19" t="n">
-        <v>303.7485984557732</v>
+        <v>298.252016339837</v>
       </c>
       <c r="O19" t="n">
-        <v>379.8439415591793</v>
+        <v>373.0140301180903</v>
       </c>
       <c r="P19" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="Q19" t="n">
-        <v>428.9057816999306</v>
+        <v>385.1566969628455</v>
       </c>
       <c r="R19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="S19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="T19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="U19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="V19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="W19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="X19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9057816999306</v>
+        <v>298.9949624611324</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.9771591999832</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="C20" t="n">
-        <v>103.9771591999832</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="D20" t="n">
-        <v>8.578115633998612</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="E20" t="n">
-        <v>8.578115633998612</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="F20" t="n">
-        <v>8.578115633998612</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="G20" t="n">
-        <v>8.578115633998612</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="H20" t="n">
-        <v>8.578115633998612</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="I20" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J20" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K20" t="n">
-        <v>20.78318349568119</v>
+        <v>111.4298567295961</v>
       </c>
       <c r="L20" t="n">
-        <v>20.78318349568119</v>
+        <v>111.4298567295961</v>
       </c>
       <c r="M20" t="n">
-        <v>126.937364466414</v>
+        <v>122.8149278794619</v>
       </c>
       <c r="N20" t="n">
-        <v>233.0915454371468</v>
+        <v>226.9487067605498</v>
       </c>
       <c r="O20" t="n">
-        <v>339.2457264078797</v>
+        <v>331.0824856416378</v>
       </c>
       <c r="P20" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="R20" t="n">
-        <v>428.9057816999306</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="S20" t="n">
-        <v>320.5962408666148</v>
+        <v>320.8061164684462</v>
       </c>
       <c r="T20" t="n">
-        <v>212.286700033299</v>
+        <v>220.9110836134661</v>
       </c>
       <c r="U20" t="n">
-        <v>103.9771591999832</v>
+        <v>220.9110836134661</v>
       </c>
       <c r="V20" t="n">
-        <v>103.9771591999832</v>
+        <v>220.9110836134661</v>
       </c>
       <c r="W20" t="n">
-        <v>103.9771591999832</v>
+        <v>220.9110836134661</v>
       </c>
       <c r="X20" t="n">
-        <v>103.9771591999832</v>
+        <v>220.9110836134661</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.9771591999832</v>
+        <v>220.9110836134661</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="C21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="D21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="E21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="F21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="G21" t="n">
-        <v>69.14032696511249</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="H21" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="I21" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J21" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K21" t="n">
-        <v>8.578115633998612</v>
+        <v>112.5486296997617</v>
       </c>
       <c r="L21" t="n">
-        <v>114.7322966047314</v>
+        <v>216.6824085808497</v>
       </c>
       <c r="M21" t="n">
-        <v>220.8864775754643</v>
+        <v>316.6087620526008</v>
       </c>
       <c r="N21" t="n">
-        <v>327.0406585461971</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="O21" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="P21" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="Q21" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="R21" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="S21" t="n">
-        <v>371.6833097878218</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="T21" t="n">
-        <v>263.373768954506</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="U21" t="n">
-        <v>263.373768954506</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="V21" t="n">
-        <v>155.0642281211902</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="W21" t="n">
-        <v>155.0642281211902</v>
+        <v>208.2463081388965</v>
       </c>
       <c r="X21" t="n">
-        <v>155.0642281211902</v>
+        <v>101.9981917415003</v>
       </c>
       <c r="Y21" t="n">
-        <v>155.0642281211902</v>
+        <v>8.414850818673775</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.07339351074513</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="C22" t="n">
-        <v>50.07339351074513</v>
+        <v>213.3330836783455</v>
       </c>
       <c r="D22" t="n">
-        <v>50.07339351074513</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="E22" t="n">
-        <v>50.07339351074513</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="F22" t="n">
-        <v>50.07339351074513</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="G22" t="n">
-        <v>50.07339351074513</v>
+        <v>114.6629672160699</v>
       </c>
       <c r="H22" t="n">
-        <v>50.07339351074513</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="I22" t="n">
-        <v>50.07339351074513</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="J22" t="n">
-        <v>8.578115633998612</v>
+        <v>8.414850818673775</v>
       </c>
       <c r="K22" t="n">
-        <v>38.28738519488137</v>
+        <v>36.7907910544037</v>
       </c>
       <c r="L22" t="n">
-        <v>117.3575766711011</v>
+        <v>114.5276532054706</v>
       </c>
       <c r="M22" t="n">
-        <v>208.3016813318301</v>
+        <v>204.1384285410468</v>
       </c>
       <c r="N22" t="n">
-        <v>303.7485984557732</v>
+        <v>298.252016339837</v>
       </c>
       <c r="O22" t="n">
-        <v>379.8439415591793</v>
+        <v>373.0140301180903</v>
       </c>
       <c r="P22" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="Q22" t="n">
-        <v>428.9057816999306</v>
+        <v>420.7425409336888</v>
       </c>
       <c r="R22" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="S22" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="T22" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="U22" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="V22" t="n">
-        <v>428.9057816999306</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="W22" t="n">
-        <v>375.0020160106926</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="X22" t="n">
-        <v>266.6924751773768</v>
+        <v>314.4944245362926</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.3829343440609</v>
+        <v>314.4944245362926</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>641.7738532004023</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="C23" t="n">
-        <v>424.9583622543204</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="D23" t="n">
-        <v>208.1428713082386</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="E23" t="n">
-        <v>17.17178688292968</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="F23" t="n">
-        <v>17.17178688292968</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="G23" t="n">
-        <v>17.17178688292968</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="H23" t="n">
-        <v>17.17178688292968</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J23" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K23" t="n">
-        <v>21.30310224363237</v>
+        <v>108.9229156219789</v>
       </c>
       <c r="L23" t="n">
-        <v>201.3789538282909</v>
+        <v>288.9987672066375</v>
       </c>
       <c r="M23" t="n">
-        <v>413.8798165045458</v>
+        <v>500.8285868614414</v>
       </c>
       <c r="N23" t="n">
-        <v>619.7343387117851</v>
+        <v>706.6831090686807</v>
       </c>
       <c r="O23" t="n">
-        <v>768.9292888544331</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="P23" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q23" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R23" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S23" t="n">
-        <v>858.5893441464841</v>
+        <v>735.0463049337224</v>
       </c>
       <c r="T23" t="n">
-        <v>858.5893441464841</v>
+        <v>735.0463049337224</v>
       </c>
       <c r="U23" t="n">
-        <v>858.5893441464841</v>
+        <v>571.4614361898623</v>
       </c>
       <c r="V23" t="n">
-        <v>858.5893441464841</v>
+        <v>355.3306131566985</v>
       </c>
       <c r="W23" t="n">
-        <v>858.5893441464841</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="X23" t="n">
-        <v>858.5893441464841</v>
+        <v>139.4198406983587</v>
       </c>
       <c r="Y23" t="n">
-        <v>858.5893441464841</v>
+        <v>139.4198406983587</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>236.8708889102026</v>
+        <v>351.7114750377365</v>
       </c>
       <c r="C24" t="n">
-        <v>152.7174887719191</v>
+        <v>267.558074899453</v>
       </c>
       <c r="D24" t="n">
-        <v>142.3445415758132</v>
+        <v>208.9232943810453</v>
       </c>
       <c r="E24" t="n">
-        <v>73.40671571320121</v>
+        <v>139.9854685184333</v>
       </c>
       <c r="F24" t="n">
-        <v>17.17178688292968</v>
+        <v>83.75053968816175</v>
       </c>
       <c r="G24" t="n">
-        <v>17.17178688292968</v>
+        <v>35.31934341362078</v>
       </c>
       <c r="H24" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I24" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J24" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K24" t="n">
-        <v>17.17178688292968</v>
+        <v>142.475121242064</v>
       </c>
       <c r="L24" t="n">
-        <v>17.17178688292968</v>
+        <v>354.3049408968678</v>
       </c>
       <c r="M24" t="n">
-        <v>181.5495826672942</v>
+        <v>566.1347605516717</v>
       </c>
       <c r="N24" t="n">
-        <v>394.050445343549</v>
+        <v>777.9645802064755</v>
       </c>
       <c r="O24" t="n">
-        <v>606.5513080198039</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="P24" t="n">
-        <v>789.1947856331548</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="Q24" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R24" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S24" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="T24" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="U24" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="V24" t="n">
-        <v>713.736865057585</v>
+        <v>711.0255801224296</v>
       </c>
       <c r="W24" t="n">
-        <v>549.7991374722268</v>
+        <v>547.0878525370714</v>
       </c>
       <c r="X24" t="n">
-        <v>432.2472664095375</v>
+        <v>547.0878525370714</v>
       </c>
       <c r="Y24" t="n">
-        <v>314.7865967874271</v>
+        <v>429.627182914961</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.17178688292968</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="C25" t="n">
-        <v>17.17178688292968</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="D25" t="n">
-        <v>17.17178688292968</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="E25" t="n">
-        <v>17.17178688292968</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="F25" t="n">
-        <v>17.17178688292968</v>
+        <v>180.8608739187281</v>
       </c>
       <c r="G25" t="n">
-        <v>17.17178688292968</v>
+        <v>157.4048154588404</v>
       </c>
       <c r="H25" t="n">
-        <v>17.17178688292968</v>
+        <v>83.8386137860884</v>
       </c>
       <c r="I25" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J25" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K25" t="n">
-        <v>83.62765649820658</v>
+        <v>83.57343079950347</v>
       </c>
       <c r="L25" t="n">
-        <v>199.4444480288205</v>
+        <v>199.3902223301174</v>
       </c>
       <c r="M25" t="n">
-        <v>327.1351527439436</v>
+        <v>327.0809270452405</v>
       </c>
       <c r="N25" t="n">
-        <v>459.3286699222808</v>
+        <v>459.2744442235777</v>
       </c>
       <c r="O25" t="n">
-        <v>572.170613080081</v>
+        <v>572.1163873813779</v>
       </c>
       <c r="P25" t="n">
-        <v>657.9790532752265</v>
+        <v>657.9248275765234</v>
       </c>
       <c r="Q25" t="n">
-        <v>661.1812969789501</v>
+        <v>661.1270712802469</v>
       </c>
       <c r="R25" t="n">
-        <v>661.1812969789501</v>
+        <v>572.3424667087778</v>
       </c>
       <c r="S25" t="n">
-        <v>661.1812969789501</v>
+        <v>436.3627038950837</v>
       </c>
       <c r="T25" t="n">
-        <v>661.1812969789501</v>
+        <v>436.3627038950837</v>
       </c>
       <c r="U25" t="n">
-        <v>462.2697853576614</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="V25" t="n">
-        <v>462.2697853576614</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="W25" t="n">
-        <v>285.3546586387901</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="X25" t="n">
-        <v>147.6647368836163</v>
+        <v>237.4511922737949</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.17178688292968</v>
+        <v>237.4511922737949</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>591.5604352322139</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="C26" t="n">
-        <v>591.5604352322139</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="D26" t="n">
-        <v>374.744944286132</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9294533400501</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="F26" t="n">
-        <v>17.17178688292968</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="G26" t="n">
-        <v>17.17178688292968</v>
+        <v>313.6545591716655</v>
       </c>
       <c r="H26" t="n">
-        <v>17.17178688292968</v>
+        <v>97.5237361385017</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J26" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K26" t="n">
-        <v>21.30310224363237</v>
+        <v>120.1325670951489</v>
       </c>
       <c r="L26" t="n">
-        <v>201.3789538282909</v>
+        <v>199.3387119145865</v>
       </c>
       <c r="M26" t="n">
-        <v>413.8798165045458</v>
+        <v>411.1685315693904</v>
       </c>
       <c r="N26" t="n">
-        <v>619.7343387117851</v>
+        <v>617.0230537766297</v>
       </c>
       <c r="O26" t="n">
-        <v>768.9292888544331</v>
+        <v>766.2180039192777</v>
       </c>
       <c r="P26" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q26" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R26" t="n">
-        <v>808.3759261782957</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S26" t="n">
-        <v>808.3759261782957</v>
+        <v>745.9162052379932</v>
       </c>
       <c r="T26" t="n">
-        <v>808.3759261782957</v>
+        <v>745.9162052379932</v>
       </c>
       <c r="U26" t="n">
-        <v>808.3759261782957</v>
+        <v>745.9162052379932</v>
       </c>
       <c r="V26" t="n">
-        <v>808.3759261782957</v>
+        <v>745.9162052379932</v>
       </c>
       <c r="W26" t="n">
-        <v>808.3759261782957</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="X26" t="n">
-        <v>808.3759261782957</v>
+        <v>529.7853822048294</v>
       </c>
       <c r="Y26" t="n">
-        <v>808.3759261782957</v>
+        <v>529.7853822048294</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>291.414023130998</v>
+        <v>100.0438856804975</v>
       </c>
       <c r="C27" t="n">
-        <v>218.1305232969852</v>
+        <v>100.0438856804975</v>
       </c>
       <c r="D27" t="n">
-        <v>170.3656430828483</v>
+        <v>100.0438856804975</v>
       </c>
       <c r="E27" t="n">
-        <v>112.297717524507</v>
+        <v>100.0438856804975</v>
       </c>
       <c r="F27" t="n">
-        <v>66.93268899850628</v>
+        <v>54.67885715449678</v>
       </c>
       <c r="G27" t="n">
-        <v>29.37139302823608</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="H27" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I27" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J27" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K27" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="L27" t="n">
-        <v>17.17178688292968</v>
+        <v>228.9473808390304</v>
       </c>
       <c r="M27" t="n">
-        <v>181.5495826672942</v>
+        <v>440.7772004938342</v>
       </c>
       <c r="N27" t="n">
-        <v>394.050445343549</v>
+        <v>652.6070201486381</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5513080198039</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="P27" t="n">
-        <v>789.1947856331548</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q27" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R27" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S27" t="n">
-        <v>786.3415290442672</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="T27" t="n">
-        <v>786.3415290442672</v>
+        <v>754.860994017209</v>
       </c>
       <c r="U27" t="n">
-        <v>786.3415290442672</v>
+        <v>627.8069052007123</v>
       </c>
       <c r="V27" t="n">
-        <v>724.8003980612973</v>
+        <v>493.8243264160839</v>
       </c>
       <c r="W27" t="n">
-        <v>571.7325707802099</v>
+        <v>340.7564991349966</v>
       </c>
       <c r="X27" t="n">
-        <v>465.0506000217914</v>
+        <v>234.0745283765781</v>
       </c>
       <c r="Y27" t="n">
-        <v>358.4598307039518</v>
+        <v>127.4837590587385</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.17178688292968</v>
+        <v>83.55011244526813</v>
       </c>
       <c r="C28" t="n">
-        <v>17.17178688292968</v>
+        <v>83.55011244526813</v>
       </c>
       <c r="D28" t="n">
-        <v>17.17178688292968</v>
+        <v>83.55011244526813</v>
       </c>
       <c r="E28" t="n">
-        <v>17.17178688292968</v>
+        <v>36.8065483099893</v>
       </c>
       <c r="F28" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="G28" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="H28" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I28" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J28" t="n">
-        <v>23.90245437854034</v>
+        <v>23.84822867983723</v>
       </c>
       <c r="K28" t="n">
-        <v>101.011913282033</v>
+        <v>100.9576875833299</v>
       </c>
       <c r="L28" t="n">
-        <v>227.4822941008627</v>
+        <v>227.4280684021596</v>
       </c>
       <c r="M28" t="n">
-        <v>365.8265881042016</v>
+        <v>365.7723624054985</v>
       </c>
       <c r="N28" t="n">
-        <v>508.6736945707546</v>
+        <v>508.6194688720515</v>
       </c>
       <c r="O28" t="n">
-        <v>632.1692270167706</v>
+        <v>632.1150013180675</v>
       </c>
       <c r="P28" t="n">
-        <v>728.6312565001318</v>
+        <v>728.5770308014287</v>
       </c>
       <c r="Q28" t="n">
-        <v>742.487089492071</v>
+        <v>742.4328637933679</v>
       </c>
       <c r="R28" t="n">
-        <v>742.487089492071</v>
+        <v>742.4328637933679</v>
       </c>
       <c r="S28" t="n">
-        <v>742.487089492071</v>
+        <v>742.4328637933679</v>
       </c>
       <c r="T28" t="n">
-        <v>742.487089492071</v>
+        <v>613.3543231109049</v>
       </c>
       <c r="U28" t="n">
-        <v>554.4454781750532</v>
+        <v>425.312711793887</v>
       </c>
       <c r="V28" t="n">
-        <v>400.9305194162806</v>
+        <v>271.7977530351145</v>
       </c>
       <c r="W28" t="n">
-        <v>212.6828788264342</v>
+        <v>83.55011244526813</v>
       </c>
       <c r="X28" t="n">
-        <v>85.86285737553118</v>
+        <v>83.55011244526813</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.17178688292968</v>
+        <v>83.55011244526813</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>345.419657038873</v>
+        <v>344.6807634272518</v>
       </c>
       <c r="C29" t="n">
-        <v>345.419657038873</v>
+        <v>344.6807634272518</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6041660927911</v>
+        <v>344.6807634272518</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6041660927911</v>
+        <v>128.549940394088</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6041660927911</v>
+        <v>128.549940394088</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6041660927911</v>
+        <v>128.549940394088</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6041660927911</v>
+        <v>128.549940394088</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J29" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K29" t="n">
-        <v>120.186792793852</v>
+        <v>120.1325670951489</v>
       </c>
       <c r="L29" t="n">
-        <v>201.3789538282909</v>
+        <v>300.2084186798075</v>
       </c>
       <c r="M29" t="n">
-        <v>413.8798165045458</v>
+        <v>512.0382383346114</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7343387117851</v>
+        <v>717.8927605418507</v>
       </c>
       <c r="O29" t="n">
-        <v>768.9292888544331</v>
+        <v>766.2180039192777</v>
       </c>
       <c r="P29" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q29" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R29" t="n">
-        <v>808.3759261782957</v>
+        <v>805.6646412431403</v>
       </c>
       <c r="S29" t="n">
-        <v>714.9501164245441</v>
+        <v>776.9424094935794</v>
       </c>
       <c r="T29" t="n">
-        <v>714.9501164245441</v>
+        <v>776.9424094935794</v>
       </c>
       <c r="U29" t="n">
-        <v>562.2351479849549</v>
+        <v>776.9424094935794</v>
       </c>
       <c r="V29" t="n">
-        <v>345.419657038873</v>
+        <v>776.9424094935794</v>
       </c>
       <c r="W29" t="n">
-        <v>345.419657038873</v>
+        <v>776.9424094935794</v>
       </c>
       <c r="X29" t="n">
-        <v>345.419657038873</v>
+        <v>560.8115864604156</v>
       </c>
       <c r="Y29" t="n">
-        <v>345.419657038873</v>
+        <v>344.6807634272518</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>279.2144169856916</v>
+        <v>161.4550166799043</v>
       </c>
       <c r="C30" t="n">
-        <v>205.9309171516789</v>
+        <v>88.17151684589156</v>
       </c>
       <c r="D30" t="n">
-        <v>158.1660369375419</v>
+        <v>40.40663663175457</v>
       </c>
       <c r="E30" t="n">
-        <v>100.0981113792006</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="F30" t="n">
-        <v>54.73308285319989</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="G30" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="H30" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I30" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J30" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K30" t="n">
-        <v>142.5293469407671</v>
+        <v>142.475121242064</v>
       </c>
       <c r="L30" t="n">
-        <v>355.0302096170219</v>
+        <v>354.3049408968678</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5310722932768</v>
+        <v>566.1347605516717</v>
       </c>
       <c r="N30" t="n">
-        <v>780.0319349695317</v>
+        <v>777.9645802064755</v>
       </c>
       <c r="O30" t="n">
-        <v>789.1947856331548</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="P30" t="n">
-        <v>789.1947856331548</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="Q30" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R30" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S30" t="n">
-        <v>846.5833707006193</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="T30" t="n">
-        <v>846.5833707006193</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="U30" t="n">
-        <v>846.5833707006193</v>
+        <v>728.823970394832</v>
       </c>
       <c r="V30" t="n">
-        <v>712.600791915991</v>
+        <v>594.8413916102036</v>
       </c>
       <c r="W30" t="n">
-        <v>559.5329646349036</v>
+        <v>441.7735643291162</v>
       </c>
       <c r="X30" t="n">
-        <v>452.8509938764851</v>
+        <v>335.0915935706977</v>
       </c>
       <c r="Y30" t="n">
-        <v>346.2602245586454</v>
+        <v>228.5008242528581</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.76703819467258</v>
+        <v>141.4870419725405</v>
       </c>
       <c r="C31" t="n">
-        <v>17.17178688292968</v>
+        <v>141.4870419725405</v>
       </c>
       <c r="D31" t="n">
-        <v>17.17178688292968</v>
+        <v>141.4870419725405</v>
       </c>
       <c r="E31" t="n">
-        <v>17.17178688292968</v>
+        <v>141.4870419725405</v>
       </c>
       <c r="F31" t="n">
-        <v>17.17178688292968</v>
+        <v>141.4870419725405</v>
       </c>
       <c r="G31" t="n">
-        <v>17.17178688292968</v>
+        <v>72.96871348181764</v>
       </c>
       <c r="H31" t="n">
-        <v>17.17178688292968</v>
+        <v>72.96871348181764</v>
       </c>
       <c r="I31" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J31" t="n">
-        <v>23.90245437854034</v>
+        <v>23.84822867983723</v>
       </c>
       <c r="K31" t="n">
-        <v>101.011913282033</v>
+        <v>100.9576875833299</v>
       </c>
       <c r="L31" t="n">
-        <v>227.4822941008627</v>
+        <v>227.4280684021596</v>
       </c>
       <c r="M31" t="n">
-        <v>365.8265881042016</v>
+        <v>365.7723624054985</v>
       </c>
       <c r="N31" t="n">
-        <v>508.6736945707546</v>
+        <v>508.6194688720515</v>
       </c>
       <c r="O31" t="n">
-        <v>632.1692270167706</v>
+        <v>632.1150013180675</v>
       </c>
       <c r="P31" t="n">
-        <v>728.6312565001318</v>
+        <v>728.5770308014287</v>
       </c>
       <c r="Q31" t="n">
-        <v>742.487089492071</v>
+        <v>742.4328637933679</v>
       </c>
       <c r="R31" t="n">
-        <v>664.5723852248727</v>
+        <v>664.5181595261696</v>
       </c>
       <c r="S31" t="n">
-        <v>539.4625227154494</v>
+        <v>539.4082970167462</v>
       </c>
       <c r="T31" t="n">
-        <v>410.3839820329864</v>
+        <v>539.4082970167462</v>
       </c>
       <c r="U31" t="n">
-        <v>410.3839820329864</v>
+        <v>468.4090485029848</v>
       </c>
       <c r="V31" t="n">
-        <v>256.8690232742138</v>
+        <v>468.4090485029848</v>
       </c>
       <c r="W31" t="n">
-        <v>256.8690232742138</v>
+        <v>468.4090485029848</v>
       </c>
       <c r="X31" t="n">
-        <v>256.8690232742138</v>
+        <v>341.5890270520817</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.245973577798</v>
+        <v>221.9659773556659</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.8027687750935</v>
+        <v>172.4467853820705</v>
       </c>
       <c r="C32" t="n">
-        <v>450.8027687750935</v>
+        <v>172.4467853820705</v>
       </c>
       <c r="D32" t="n">
-        <v>233.9872778290116</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="E32" t="n">
-        <v>233.9872778290116</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="F32" t="n">
-        <v>233.9872778290116</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="G32" t="n">
-        <v>17.17178688292968</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="H32" t="n">
-        <v>17.17178688292968</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J32" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K32" t="n">
-        <v>21.30310224363237</v>
+        <v>19.26286032992795</v>
       </c>
       <c r="L32" t="n">
-        <v>201.3789538282909</v>
+        <v>199.3387119145865</v>
       </c>
       <c r="M32" t="n">
-        <v>413.8798165045458</v>
+        <v>411.1685315693904</v>
       </c>
       <c r="N32" t="n">
-        <v>619.7343387117851</v>
+        <v>617.0230537766297</v>
       </c>
       <c r="O32" t="n">
-        <v>768.9292888544331</v>
+        <v>766.2180039192777</v>
       </c>
       <c r="P32" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q32" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R32" t="n">
-        <v>858.5893441464841</v>
+        <v>820.1332152939974</v>
       </c>
       <c r="S32" t="n">
-        <v>760.8270963184549</v>
+        <v>820.1332152939974</v>
       </c>
       <c r="T32" t="n">
-        <v>667.6182597211753</v>
+        <v>820.1332152939974</v>
       </c>
       <c r="U32" t="n">
-        <v>667.6182597211753</v>
+        <v>820.1332152939974</v>
       </c>
       <c r="V32" t="n">
-        <v>667.6182597211753</v>
+        <v>604.7084314483982</v>
       </c>
       <c r="W32" t="n">
-        <v>667.6182597211753</v>
+        <v>604.7084314483982</v>
       </c>
       <c r="X32" t="n">
-        <v>450.8027687750935</v>
+        <v>388.5776084152344</v>
       </c>
       <c r="Y32" t="n">
-        <v>450.8027687750935</v>
+        <v>388.5776084152344</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>143.3444719088218</v>
+        <v>156.5159623125217</v>
       </c>
       <c r="C33" t="n">
-        <v>82.26057822011543</v>
+        <v>97.70103652936612</v>
       </c>
       <c r="D33" t="n">
-        <v>75.69889908858786</v>
+        <v>64.40473036608628</v>
       </c>
       <c r="E33" t="n">
-        <v>75.69889908858786</v>
+        <v>20.80537885860221</v>
       </c>
       <c r="F33" t="n">
-        <v>42.5334767078935</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="G33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="H33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="L33" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="M33" t="n">
-        <v>181.5495826672942</v>
+        <v>180.1803837750408</v>
       </c>
       <c r="N33" t="n">
-        <v>394.050445343549</v>
+        <v>392.0102034298446</v>
       </c>
       <c r="O33" t="n">
-        <v>606.5513080198039</v>
+        <v>603.8400230846485</v>
       </c>
       <c r="P33" t="n">
-        <v>789.1947856331548</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="Q33" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R33" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S33" t="n">
-        <v>798.5411351895737</v>
+        <v>798.098818159969</v>
       </c>
       <c r="T33" t="n">
-        <v>709.7236761407604</v>
+        <v>711.5503270167065</v>
       </c>
       <c r="U33" t="n">
-        <v>594.8691934695702</v>
+        <v>598.9648122510671</v>
       </c>
       <c r="V33" t="n">
-        <v>473.0862208302481</v>
+        <v>479.4508075172958</v>
       </c>
       <c r="W33" t="n">
-        <v>332.2179996944672</v>
+        <v>340.8515542870656</v>
       </c>
       <c r="X33" t="n">
-        <v>237.735635081355</v>
+        <v>248.6381575795042</v>
       </c>
       <c r="Y33" t="n">
-        <v>143.3444719088218</v>
+        <v>156.5159623125217</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.7717691186286</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="C34" t="n">
-        <v>183.7717691186286</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="D34" t="n">
-        <v>147.0242652987135</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="E34" t="n">
-        <v>112.4803073087411</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="F34" t="n">
-        <v>78.95949540325144</v>
+        <v>160.7776211884503</v>
       </c>
       <c r="G34" t="n">
-        <v>60.82333303521436</v>
+        <v>106.7278667485846</v>
       </c>
       <c r="H34" t="n">
-        <v>60.82333303521436</v>
+        <v>58.50013943096049</v>
       </c>
       <c r="I34" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J34" t="n">
-        <v>35.85928836155513</v>
+        <v>38.02887810708216</v>
       </c>
       <c r="K34" t="n">
-        <v>124.9255812480626</v>
+        <v>129.3189864378199</v>
       </c>
       <c r="L34" t="n">
-        <v>263.3527960499071</v>
+        <v>269.9700166838947</v>
       </c>
       <c r="M34" t="n">
-        <v>413.6539240362607</v>
+        <v>422.4949601144787</v>
       </c>
       <c r="N34" t="n">
-        <v>568.4578644858285</v>
+        <v>579.5227160082768</v>
       </c>
       <c r="O34" t="n">
-        <v>703.9102309148593</v>
+        <v>717.198897881538</v>
       </c>
       <c r="P34" t="n">
-        <v>812.3290943812353</v>
+        <v>827.8415767921443</v>
       </c>
       <c r="Q34" t="n">
-        <v>838.1417613561894</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R34" t="n">
-        <v>838.1417613561894</v>
+        <v>792.4319289949875</v>
       </c>
       <c r="S34" t="n">
-        <v>725.2315049920724</v>
+        <v>792.4319289949875</v>
       </c>
       <c r="T34" t="n">
-        <v>608.3525704549157</v>
+        <v>677.8219623633817</v>
       </c>
       <c r="U34" t="n">
-        <v>432.5105652832042</v>
+        <v>504.2489250972209</v>
       </c>
       <c r="V34" t="n">
-        <v>291.195212669738</v>
+        <v>365.2025403893055</v>
       </c>
       <c r="W34" t="n">
-        <v>291.195212669738</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="X34" t="n">
-        <v>291.195212669738</v>
+        <v>191.4234738503163</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.7717691186286</v>
+        <v>191.4234738503163</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>116.4045599474847</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="C35" t="n">
-        <v>116.4045599474847</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="D35" t="n">
-        <v>116.4045599474847</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="E35" t="n">
-        <v>116.4045599474847</v>
+        <v>546.3430124095585</v>
       </c>
       <c r="F35" t="n">
-        <v>116.4045599474847</v>
+        <v>546.3430124095585</v>
       </c>
       <c r="G35" t="n">
-        <v>116.4045599474847</v>
+        <v>330.2121893763947</v>
       </c>
       <c r="H35" t="n">
-        <v>116.4045599474847</v>
+        <v>114.0813663432308</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J35" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K35" t="n">
-        <v>21.30310224363237</v>
+        <v>120.1325670951489</v>
       </c>
       <c r="L35" t="n">
-        <v>201.3789538282909</v>
+        <v>300.2084186798075</v>
       </c>
       <c r="M35" t="n">
-        <v>413.8798165045458</v>
+        <v>512.0382383346114</v>
       </c>
       <c r="N35" t="n">
-        <v>619.7343387117851</v>
+        <v>617.0230537766297</v>
       </c>
       <c r="O35" t="n">
-        <v>768.9292888544331</v>
+        <v>766.2180039192777</v>
       </c>
       <c r="P35" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="Q35" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R35" t="n">
-        <v>820.575532323602</v>
+        <v>820.1332152939974</v>
       </c>
       <c r="S35" t="n">
-        <v>820.575532323602</v>
+        <v>724.639935371519</v>
       </c>
       <c r="T35" t="n">
-        <v>820.575532323602</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="U35" t="n">
-        <v>820.575532323602</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="V35" t="n">
-        <v>766.8510327857302</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="W35" t="n">
-        <v>550.0355418396484</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="X35" t="n">
-        <v>550.0355418396484</v>
+        <v>614.9286958754183</v>
       </c>
       <c r="Y35" t="n">
-        <v>333.2200508935666</v>
+        <v>614.9286958754183</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>172.3480668461248</v>
+        <v>132.321515050075</v>
       </c>
       <c r="C36" t="n">
-        <v>111.2641731574185</v>
+        <v>73.50658926691946</v>
       </c>
       <c r="D36" t="n">
-        <v>75.69889908858786</v>
+        <v>40.21028310363963</v>
       </c>
       <c r="E36" t="n">
-        <v>75.69889908858786</v>
+        <v>40.21028310363963</v>
       </c>
       <c r="F36" t="n">
-        <v>42.5334767078935</v>
+        <v>40.21028310363963</v>
       </c>
       <c r="G36" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="H36" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="I36" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J36" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="K36" t="n">
-        <v>142.5293469407671</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="L36" t="n">
-        <v>142.5293469407671</v>
+        <v>228.9473808390304</v>
       </c>
       <c r="M36" t="n">
-        <v>355.0302096170219</v>
+        <v>440.7772004938342</v>
       </c>
       <c r="N36" t="n">
-        <v>567.5310722932768</v>
+        <v>603.8400230846485</v>
       </c>
       <c r="O36" t="n">
-        <v>780.0319349695317</v>
+        <v>603.8400230846485</v>
       </c>
       <c r="P36" t="n">
-        <v>789.1947856331548</v>
+        <v>786.4835006979994</v>
       </c>
       <c r="Q36" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="R36" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113287</v>
       </c>
       <c r="S36" t="n">
-        <v>798.5411351895737</v>
+        <v>798.098818159969</v>
       </c>
       <c r="T36" t="n">
-        <v>709.7236761407604</v>
+        <v>711.5503270167065</v>
       </c>
       <c r="U36" t="n">
-        <v>678.7189898345205</v>
+        <v>627.347598510717</v>
       </c>
       <c r="V36" t="n">
-        <v>556.9360171951985</v>
+        <v>507.8335937769457</v>
       </c>
       <c r="W36" t="n">
-        <v>416.0677960594176</v>
+        <v>369.2343405467155</v>
       </c>
       <c r="X36" t="n">
-        <v>321.5854314463054</v>
+        <v>277.0209438391541</v>
       </c>
       <c r="Y36" t="n">
-        <v>227.1942682737722</v>
+        <v>184.8987485721717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.34414494070404</v>
+        <v>195.2561571028146</v>
       </c>
       <c r="C37" t="n">
-        <v>94.34414494070404</v>
+        <v>195.2561571028146</v>
       </c>
       <c r="D37" t="n">
-        <v>94.34414494070404</v>
+        <v>160.7776211884503</v>
       </c>
       <c r="E37" t="n">
-        <v>94.34414494070404</v>
+        <v>160.7776211884503</v>
       </c>
       <c r="F37" t="n">
-        <v>60.82333303521436</v>
+        <v>160.7776211884503</v>
       </c>
       <c r="G37" t="n">
-        <v>60.82333303521436</v>
+        <v>106.7278667485846</v>
       </c>
       <c r="H37" t="n">
-        <v>60.82333303521436</v>
+        <v>58.50013943096049</v>
       </c>
       <c r="I37" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422657</v>
       </c>
       <c r="J37" t="n">
-        <v>35.85928836155513</v>
+        <v>38.02887810708232</v>
       </c>
       <c r="K37" t="n">
-        <v>124.9255812480626</v>
+        <v>129.3189864378201</v>
       </c>
       <c r="L37" t="n">
-        <v>263.3527960499071</v>
+        <v>269.9700166838949</v>
       </c>
       <c r="M37" t="n">
-        <v>413.6539240362607</v>
+        <v>422.4949601144789</v>
       </c>
       <c r="N37" t="n">
-        <v>568.4578644858285</v>
+        <v>579.522716008277</v>
       </c>
       <c r="O37" t="n">
-        <v>703.9102309148593</v>
+        <v>717.1988978815381</v>
       </c>
       <c r="P37" t="n">
-        <v>812.3290943812353</v>
+        <v>827.8415767921445</v>
       </c>
       <c r="Q37" t="n">
-        <v>838.1417613561894</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="R37" t="n">
-        <v>772.4266632342974</v>
+        <v>792.4319289949876</v>
       </c>
       <c r="S37" t="n">
-        <v>659.5164068701804</v>
+        <v>681.7906405364214</v>
       </c>
       <c r="T37" t="n">
-        <v>542.6374723330238</v>
+        <v>567.1806739048155</v>
       </c>
       <c r="U37" t="n">
-        <v>366.7954671613122</v>
+        <v>393.6076366386548</v>
       </c>
       <c r="V37" t="n">
-        <v>366.7954671613122</v>
+        <v>373.6179658351288</v>
       </c>
       <c r="W37" t="n">
-        <v>190.7474327167723</v>
+        <v>373.6179658351288</v>
       </c>
       <c r="X37" t="n">
-        <v>190.7474327167723</v>
+        <v>261.2665184350828</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.6234741785231</v>
+        <v>261.2665184350828</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>450.8027687750935</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="C38" t="n">
-        <v>450.8027687750935</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="D38" t="n">
-        <v>450.8027687750935</v>
+        <v>233.2483842173905</v>
       </c>
       <c r="E38" t="n">
-        <v>233.9872778290116</v>
+        <v>233.2483842173905</v>
       </c>
       <c r="F38" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="G38" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="H38" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="J38" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="K38" t="n">
-        <v>120.186792793852</v>
+        <v>120.1325670951489</v>
       </c>
       <c r="L38" t="n">
-        <v>300.2626443785106</v>
+        <v>300.2084186798075</v>
       </c>
       <c r="M38" t="n">
-        <v>503.5398717965967</v>
+        <v>411.1685315693905</v>
       </c>
       <c r="N38" t="n">
-        <v>709.3943940038361</v>
+        <v>617.0230537766298</v>
       </c>
       <c r="O38" t="n">
-        <v>858.5893441464841</v>
+        <v>766.2180039192779</v>
       </c>
       <c r="P38" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="Q38" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="R38" t="n">
-        <v>858.5893441464841</v>
+        <v>781.2801091012142</v>
       </c>
       <c r="S38" t="n">
-        <v>817.0911720043634</v>
+        <v>646.9337229859524</v>
       </c>
       <c r="T38" t="n">
-        <v>667.6182597211753</v>
+        <v>626.4787078320699</v>
       </c>
       <c r="U38" t="n">
-        <v>667.6182597211753</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="V38" t="n">
-        <v>667.6182597211753</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="W38" t="n">
-        <v>667.6182597211753</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="X38" t="n">
-        <v>667.6182597211753</v>
+        <v>449.3792072505543</v>
       </c>
       <c r="Y38" t="n">
-        <v>450.8027687750935</v>
+        <v>449.3792072505543</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>190.7686352149954</v>
+        <v>414.5974838342751</v>
       </c>
       <c r="C39" t="n">
-        <v>190.7686352149954</v>
+        <v>316.9294518583361</v>
       </c>
       <c r="D39" t="n">
-        <v>190.7686352149954</v>
+        <v>244.7800395022729</v>
       </c>
       <c r="E39" t="n">
-        <v>107.4076109204238</v>
+        <v>162.3275818020055</v>
       </c>
       <c r="F39" t="n">
-        <v>80.02618158943022</v>
+        <v>92.57802113407847</v>
       </c>
       <c r="G39" t="n">
-        <v>17.17178688292968</v>
+        <v>30.63219302188203</v>
       </c>
       <c r="H39" t="n">
-        <v>17.17178688292968</v>
+        <v>30.63219302188203</v>
       </c>
       <c r="I39" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="J39" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5293469407671</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="L39" t="n">
-        <v>181.5495826672942</v>
+        <v>37.74512263356627</v>
       </c>
       <c r="M39" t="n">
-        <v>394.050445343549</v>
+        <v>249.5749422883702</v>
       </c>
       <c r="N39" t="n">
-        <v>394.050445343549</v>
+        <v>461.404761943174</v>
       </c>
       <c r="O39" t="n">
-        <v>606.5513080198039</v>
+        <v>673.2345815979779</v>
       </c>
       <c r="P39" t="n">
-        <v>789.1947856331548</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="Q39" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="R39" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="S39" t="n">
-        <v>858.5893441464841</v>
+        <v>855.8780592113288</v>
       </c>
       <c r="T39" t="n">
-        <v>858.5893441464841</v>
+        <v>730.4764618752829</v>
       </c>
       <c r="U39" t="n">
-        <v>706.242156593757</v>
+        <v>730.4764618752829</v>
       </c>
       <c r="V39" t="n">
-        <v>546.9664790728983</v>
+        <v>572.1093509487282</v>
       </c>
       <c r="W39" t="n">
-        <v>546.9664790728983</v>
+        <v>506.027823549155</v>
       </c>
       <c r="X39" t="n">
-        <v>414.9914095782494</v>
+        <v>506.027823549155</v>
       </c>
       <c r="Y39" t="n">
-        <v>283.1075415241795</v>
+        <v>506.027823549155</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="C40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="D40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="E40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="F40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="G40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="H40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="I40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="J40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="K40" t="n">
-        <v>69.49147971504301</v>
+        <v>70.32774013541737</v>
       </c>
       <c r="L40" t="n">
-        <v>171.1720944624934</v>
+        <v>172.8988410019452</v>
       </c>
       <c r="M40" t="n">
-        <v>284.7266223944529</v>
+        <v>287.3438550529821</v>
       </c>
       <c r="N40" t="n">
-        <v>402.7839627896265</v>
+        <v>406.2916815672332</v>
       </c>
       <c r="O40" t="n">
-        <v>501.4897291642632</v>
+        <v>505.8879340609473</v>
       </c>
       <c r="P40" t="n">
-        <v>573.1619925762451</v>
+        <v>578.4506835920067</v>
       </c>
       <c r="Q40" t="n">
-        <v>573.1619925762451</v>
+        <v>578.4506835920067</v>
       </c>
       <c r="R40" t="n">
-        <v>573.1619925762451</v>
+        <v>578.4506835920067</v>
       </c>
       <c r="S40" t="n">
-        <v>573.1619925762451</v>
+        <v>560.9062683682588</v>
       </c>
       <c r="T40" t="n">
-        <v>444.0472362622546</v>
+        <v>407.4431955438696</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7125262090064</v>
+        <v>195.0170520849254</v>
       </c>
       <c r="V40" t="n">
-        <v>230.7125262090064</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="W40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="X40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.17178688292968</v>
+        <v>17.11756118422658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.6716622210214</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="C41" t="n">
-        <v>212.6716622210214</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="D41" t="n">
-        <v>104.1657121082554</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="E41" t="n">
-        <v>104.1657121082554</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="F41" t="n">
-        <v>104.1657121082554</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="G41" t="n">
-        <v>104.1657121082554</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="H41" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="I41" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="J41" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="K41" t="n">
-        <v>20.98346203793653</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="L41" t="n">
-        <v>127.3301437434585</v>
+        <v>116.3987511392687</v>
       </c>
       <c r="M41" t="n">
-        <v>233.6768254489805</v>
+        <v>224.0947919129846</v>
       </c>
       <c r="N41" t="n">
-        <v>233.6768254489805</v>
+        <v>331.7908326867006</v>
       </c>
       <c r="O41" t="n">
-        <v>340.0235071545025</v>
+        <v>435.1355182776401</v>
       </c>
       <c r="P41" t="n">
-        <v>429.6835624465534</v>
+        <v>435.1355182776401</v>
       </c>
       <c r="Q41" t="n">
-        <v>429.6835624465534</v>
+        <v>435.1355182776401</v>
       </c>
       <c r="R41" t="n">
-        <v>429.6835624465534</v>
+        <v>337.5976786161713</v>
       </c>
       <c r="S41" t="n">
-        <v>429.6835624465534</v>
+        <v>227.7149719804036</v>
       </c>
       <c r="T41" t="n">
-        <v>321.1776123337874</v>
+        <v>117.8322653446359</v>
       </c>
       <c r="U41" t="n">
-        <v>321.1776123337874</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="V41" t="n">
-        <v>321.1776123337874</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="W41" t="n">
-        <v>321.1776123337874</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="X41" t="n">
-        <v>321.1776123337874</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.6716622210214</v>
+        <v>8.702710365552802</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.8945850948568</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="C42" t="n">
-        <v>114.8945850948568</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="D42" t="n">
-        <v>114.8945850948568</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="E42" t="n">
-        <v>8.593671248931068</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="F42" t="n">
-        <v>8.593671248931068</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="G42" t="n">
-        <v>8.593671248931068</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="H42" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="I42" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="J42" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="K42" t="n">
-        <v>114.940352954453</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="L42" t="n">
-        <v>221.287034659975</v>
+        <v>116.3987511392687</v>
       </c>
       <c r="M42" t="n">
-        <v>327.633716365497</v>
+        <v>116.3987511392687</v>
       </c>
       <c r="N42" t="n">
-        <v>327.633716365497</v>
+        <v>150.3488782168789</v>
       </c>
       <c r="O42" t="n">
-        <v>360.2890039332241</v>
+        <v>258.0449189905949</v>
       </c>
       <c r="P42" t="n">
-        <v>360.2890039332241</v>
+        <v>365.7409597643108</v>
       </c>
       <c r="Q42" t="n">
-        <v>429.6835624465534</v>
+        <v>435.1355182776401</v>
       </c>
       <c r="R42" t="n">
-        <v>429.6835624465534</v>
+        <v>387.8110965843597</v>
       </c>
       <c r="S42" t="n">
-        <v>429.6835624465534</v>
+        <v>277.928389948592</v>
       </c>
       <c r="T42" t="n">
-        <v>321.1776123337874</v>
+        <v>277.928389948592</v>
       </c>
       <c r="U42" t="n">
-        <v>212.6716622210214</v>
+        <v>168.0456833128243</v>
       </c>
       <c r="V42" t="n">
-        <v>212.6716622210214</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="W42" t="n">
-        <v>212.6716622210214</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="X42" t="n">
-        <v>212.6716622210214</v>
+        <v>68.22673820413952</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.6716622210214</v>
+        <v>68.22673820413952</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.593671248931068</v>
+        <v>253.110497214099</v>
       </c>
       <c r="C43" t="n">
-        <v>8.593671248931068</v>
+        <v>253.110497214099</v>
       </c>
       <c r="D43" t="n">
-        <v>8.593671248931068</v>
+        <v>253.110497214099</v>
       </c>
       <c r="E43" t="n">
-        <v>8.593671248931068</v>
+        <v>159.0425113855399</v>
       </c>
       <c r="F43" t="n">
-        <v>8.593671248931068</v>
+        <v>159.0425113855399</v>
       </c>
       <c r="G43" t="n">
-        <v>8.593671248931068</v>
+        <v>49.15980474977216</v>
       </c>
       <c r="H43" t="n">
-        <v>8.593671248931068</v>
+        <v>49.15980474977216</v>
       </c>
       <c r="I43" t="n">
-        <v>8.593671248931068</v>
+        <v>49.15980474977216</v>
       </c>
       <c r="J43" t="n">
-        <v>8.593671248931068</v>
+        <v>8.702710365552802</v>
       </c>
       <c r="K43" t="n">
-        <v>38.42997833176223</v>
+        <v>39.4295035674615</v>
       </c>
       <c r="L43" t="n">
-        <v>117.6272073299304</v>
+        <v>119.5172186847071</v>
       </c>
       <c r="M43" t="n">
-        <v>208.6983495126078</v>
+        <v>211.478846986462</v>
       </c>
       <c r="N43" t="n">
-        <v>304.2723041584993</v>
+        <v>307.9432877514309</v>
       </c>
       <c r="O43" t="n">
-        <v>380.4946847838537</v>
+        <v>385.0561544958629</v>
       </c>
       <c r="P43" t="n">
-        <v>429.6835624465534</v>
+        <v>435.1355182776401</v>
       </c>
       <c r="Q43" t="n">
-        <v>429.6835624465534</v>
+        <v>401.9482591105706</v>
       </c>
       <c r="R43" t="n">
-        <v>429.6835624465534</v>
+        <v>401.9482591105706</v>
       </c>
       <c r="S43" t="n">
-        <v>429.6835624465534</v>
+        <v>401.9482591105706</v>
       </c>
       <c r="T43" t="n">
-        <v>321.1776123337874</v>
+        <v>362.9932038498667</v>
       </c>
       <c r="U43" t="n">
-        <v>321.1776123337874</v>
+        <v>362.9932038498667</v>
       </c>
       <c r="V43" t="n">
-        <v>321.1776123337874</v>
+        <v>362.9932038498667</v>
       </c>
       <c r="W43" t="n">
-        <v>212.6716622210214</v>
+        <v>362.9932038498667</v>
       </c>
       <c r="X43" t="n">
-        <v>104.1657121082554</v>
+        <v>253.110497214099</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.593671248931068</v>
+        <v>253.110497214099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.0996213616971</v>
+        <v>325.2528116418723</v>
       </c>
       <c r="C44" t="n">
-        <v>117.0996213616971</v>
+        <v>325.2528116418723</v>
       </c>
       <c r="D44" t="n">
-        <v>117.0996213616971</v>
+        <v>325.2528116418723</v>
       </c>
       <c r="E44" t="n">
-        <v>117.0996213616971</v>
+        <v>215.3701050061046</v>
       </c>
       <c r="F44" t="n">
-        <v>117.0996213616971</v>
+        <v>215.3701050061046</v>
       </c>
       <c r="G44" t="n">
-        <v>8.593671248931068</v>
+        <v>105.487398370337</v>
       </c>
       <c r="H44" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="I44" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="J44" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="K44" t="n">
-        <v>111.6086771598534</v>
+        <v>111.7177162764752</v>
       </c>
       <c r="L44" t="n">
-        <v>217.9553588653754</v>
+        <v>219.4137570501911</v>
       </c>
       <c r="M44" t="n">
-        <v>217.9553588653754</v>
+        <v>327.1097978239069</v>
       </c>
       <c r="N44" t="n">
-        <v>233.6768254489805</v>
+        <v>327.4394775039241</v>
       </c>
       <c r="O44" t="n">
-        <v>340.0235071545025</v>
+        <v>435.13551827764</v>
       </c>
       <c r="P44" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="Q44" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="R44" t="n">
-        <v>334.1115215872292</v>
+        <v>435.13551827764</v>
       </c>
       <c r="S44" t="n">
-        <v>225.6055714744631</v>
+        <v>435.13551827764</v>
       </c>
       <c r="T44" t="n">
-        <v>225.6055714744631</v>
+        <v>435.13551827764</v>
       </c>
       <c r="U44" t="n">
-        <v>117.0996213616971</v>
+        <v>435.13551827764</v>
       </c>
       <c r="V44" t="n">
-        <v>117.0996213616971</v>
+        <v>435.13551827764</v>
       </c>
       <c r="W44" t="n">
-        <v>117.0996213616971</v>
+        <v>435.13551827764</v>
       </c>
       <c r="X44" t="n">
-        <v>117.0996213616971</v>
+        <v>435.13551827764</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.0996213616971</v>
+        <v>435.13551827764</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.593671248931068</v>
+        <v>58.16297667705663</v>
       </c>
       <c r="C45" t="n">
-        <v>8.593671248931068</v>
+        <v>58.16297667705663</v>
       </c>
       <c r="D45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="E45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="F45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="G45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="H45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="I45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="J45" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="K45" t="n">
-        <v>8.593671248931068</v>
+        <v>42.65283744316302</v>
       </c>
       <c r="L45" t="n">
-        <v>114.940352954453</v>
+        <v>42.65283744316302</v>
       </c>
       <c r="M45" t="n">
-        <v>221.287034659975</v>
+        <v>150.3488782168789</v>
       </c>
       <c r="N45" t="n">
-        <v>323.3368807410315</v>
+        <v>258.0449189905948</v>
       </c>
       <c r="O45" t="n">
-        <v>429.6835624465534</v>
+        <v>258.0449189905948</v>
       </c>
       <c r="P45" t="n">
-        <v>429.6835624465534</v>
+        <v>365.7409597643107</v>
       </c>
       <c r="Q45" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="R45" t="n">
-        <v>429.6835624465534</v>
+        <v>387.8110965843596</v>
       </c>
       <c r="S45" t="n">
-        <v>429.6835624465534</v>
+        <v>387.8110965843596</v>
       </c>
       <c r="T45" t="n">
-        <v>429.6835624465534</v>
+        <v>387.8110965843596</v>
       </c>
       <c r="U45" t="n">
-        <v>429.6835624465534</v>
+        <v>387.8110965843596</v>
       </c>
       <c r="V45" t="n">
-        <v>429.6835624465534</v>
+        <v>277.928389948592</v>
       </c>
       <c r="W45" t="n">
-        <v>321.1776123337874</v>
+        <v>277.928389948592</v>
       </c>
       <c r="X45" t="n">
-        <v>212.6716622210214</v>
+        <v>168.0456833128243</v>
       </c>
       <c r="Y45" t="n">
-        <v>104.1657121082554</v>
+        <v>58.16297667705663</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.593671248931068</v>
+        <v>214.8569486598223</v>
       </c>
       <c r="C46" t="n">
-        <v>8.593671248931068</v>
+        <v>104.9742420240546</v>
       </c>
       <c r="D46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="E46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="F46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="G46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="H46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="I46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="J46" t="n">
-        <v>8.593671248931068</v>
+        <v>8.7027103655528</v>
       </c>
       <c r="K46" t="n">
-        <v>38.42997833176223</v>
+        <v>39.42950356746144</v>
       </c>
       <c r="L46" t="n">
-        <v>117.6272073299304</v>
+        <v>119.5172186847071</v>
       </c>
       <c r="M46" t="n">
-        <v>208.6983495126078</v>
+        <v>211.4788469864619</v>
       </c>
       <c r="N46" t="n">
-        <v>304.2723041584992</v>
+        <v>307.9432877514308</v>
       </c>
       <c r="O46" t="n">
-        <v>380.4946847838537</v>
+        <v>385.0561544958628</v>
       </c>
       <c r="P46" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="Q46" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="R46" t="n">
-        <v>429.6835624465534</v>
+        <v>435.13551827764</v>
       </c>
       <c r="S46" t="n">
-        <v>321.1776123337874</v>
+        <v>435.13551827764</v>
       </c>
       <c r="T46" t="n">
-        <v>212.6716622210214</v>
+        <v>435.13551827764</v>
       </c>
       <c r="U46" t="n">
-        <v>212.6716622210214</v>
+        <v>435.13551827764</v>
       </c>
       <c r="V46" t="n">
-        <v>212.6716622210214</v>
+        <v>435.13551827764</v>
       </c>
       <c r="W46" t="n">
-        <v>212.6716622210214</v>
+        <v>435.13551827764</v>
       </c>
       <c r="X46" t="n">
-        <v>212.6716622210214</v>
+        <v>325.2528116418723</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.1657121082554</v>
+        <v>324.73965529559</v>
       </c>
     </row>
   </sheetData>
@@ -9169,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>342.9928603949699</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>337.5726786522554</v>
+        <v>241.846305095824</v>
       </c>
       <c r="N17" t="n">
-        <v>244.9122988708263</v>
+        <v>334.5986988300131</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>335.2838466551089</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>245.0678843993417</v>
+        <v>168.6816359020578</v>
       </c>
       <c r="L18" t="n">
-        <v>171.3529299216967</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>247.3196691554405</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>236.5273473167555</v>
       </c>
       <c r="O18" t="n">
-        <v>249.8226898694271</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>241.2008528393129</v>
+        <v>239.1600426477524</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>232.4182024204175</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>337.5726786522554</v>
+        <v>241.846305095824</v>
       </c>
       <c r="N20" t="n">
-        <v>336.6395090215736</v>
+        <v>334.5986988300131</v>
       </c>
       <c r="O20" t="n">
-        <v>337.3246568466694</v>
+        <v>335.2838466551089</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>243.0270742077812</v>
       </c>
       <c r="L21" t="n">
-        <v>245.7808252048569</v>
+        <v>243.7400150132964</v>
       </c>
       <c r="M21" t="n">
-        <v>249.360479347001</v>
+        <v>243.0697444995447</v>
       </c>
       <c r="N21" t="n">
-        <v>238.5681575083159</v>
+        <v>236.5273473167555</v>
       </c>
       <c r="O21" t="n">
-        <v>245.4903082360945</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>224.2628968638722</v>
+        <v>312.8225322952354</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>444.9935692638937</v>
+        <v>444.3157480301049</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>352.5238945827064</v>
       </c>
       <c r="M24" t="n">
-        <v>308.1722114819825</v>
+        <v>356.1035487248505</v>
       </c>
       <c r="N24" t="n">
-        <v>345.9890481199543</v>
+        <v>345.3112268861655</v>
       </c>
       <c r="O24" t="n">
-        <v>357.2435804810655</v>
+        <v>151.2012146379029</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>224.2628968638722</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>315.7726218583081</v>
       </c>
       <c r="M26" t="n">
-        <v>444.9935692638937</v>
+        <v>444.3157480301049</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>352.5238945827064</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1722114819825</v>
+        <v>356.1035487248505</v>
       </c>
       <c r="N27" t="n">
-        <v>345.9890481199543</v>
+        <v>345.3112268861655</v>
       </c>
       <c r="O27" t="n">
-        <v>357.2435804810655</v>
+        <v>347.9205263259502</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>317.7786988431578</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>444.9935692638937</v>
+        <v>444.3157480301049</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>278.9115885706029</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>353.2017158164952</v>
+        <v>352.5238945827064</v>
       </c>
       <c r="M30" t="n">
-        <v>356.7813699586393</v>
+        <v>356.1035487248505</v>
       </c>
       <c r="N30" t="n">
-        <v>345.9890481199543</v>
+        <v>345.3112268861655</v>
       </c>
       <c r="O30" t="n">
-        <v>151.8516491551748</v>
+        <v>151.2012146379029</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>224.2628968638722</v>
+        <v>222.2568198790223</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>444.9935692638937</v>
+        <v>444.3157480301049</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10436,13 +10436,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>308.1722114819825</v>
+        <v>306.8439557309216</v>
       </c>
       <c r="N33" t="n">
-        <v>345.9890481199543</v>
+        <v>345.3112268861655</v>
       </c>
       <c r="O33" t="n">
-        <v>357.2435804810655</v>
+        <v>356.5657592472766</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>224.2628968638722</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>444.9935692638937</v>
+        <v>444.3157480301049</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>335.4583317198417</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>352.5238945827064</v>
       </c>
       <c r="M36" t="n">
-        <v>356.7813699586393</v>
+        <v>356.1035487248505</v>
       </c>
       <c r="N36" t="n">
-        <v>345.9890481199543</v>
+        <v>296.0516338922366</v>
       </c>
       <c r="O36" t="n">
-        <v>357.2435804810655</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>143.2298121250606</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>435.6767659728142</v>
+        <v>342.4271553379626</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>177.9687593016187</v>
+        <v>159.3903004357729</v>
       </c>
       <c r="M39" t="n">
-        <v>356.7813699586393</v>
+        <v>356.1035487248505</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>345.3112268861655</v>
       </c>
       <c r="O39" t="n">
-        <v>357.2435804810655</v>
+        <v>356.5657592472767</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>232.6047912358952</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>343.1873055816256</v>
+        <v>344.5502945393973</v>
       </c>
       <c r="M41" t="n">
-        <v>337.7671238389111</v>
+        <v>339.1301127966827</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>338.1969431660009</v>
       </c>
       <c r="O41" t="n">
-        <v>337.5191020333251</v>
+        <v>334.486782725666</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2623295859973</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>245.9752703915125</v>
+        <v>247.3382593492842</v>
       </c>
       <c r="M42" t="n">
-        <v>249.5549245336567</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>165.634769737485</v>
       </c>
       <c r="O42" t="n">
-        <v>175.5813834017446</v>
+        <v>251.3801240138545</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>242.7582869837403</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>343.1873055816256</v>
+        <v>344.5502945393972</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>339.1301127966827</v>
       </c>
       <c r="N44" t="n">
-        <v>245.2933328729597</v>
+        <v>229.746073374386</v>
       </c>
       <c r="O44" t="n">
-        <v>337.5191020333251</v>
+        <v>338.8820909910967</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>172.1344966285107</v>
       </c>
       <c r="L45" t="n">
-        <v>245.9752703915125</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>249.5549245336567</v>
+        <v>250.9179134914283</v>
       </c>
       <c r="N45" t="n">
-        <v>234.422364690461</v>
+        <v>240.1255916527433</v>
       </c>
       <c r="O45" t="n">
-        <v>250.0171350560828</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>242.7582869837402</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>330.4549866447869</v>
+        <v>331.801783942921</v>
       </c>
       <c r="C17" t="n">
-        <v>312.9940367523138</v>
+        <v>314.340834050448</v>
       </c>
       <c r="D17" t="n">
-        <v>302.4041866019892</v>
+        <v>303.7509839001234</v>
       </c>
       <c r="E17" t="n">
-        <v>329.6515150535681</v>
+        <v>225.81267711828</v>
       </c>
       <c r="F17" t="n">
-        <v>260.1521375926931</v>
+        <v>250.7583527877297</v>
       </c>
       <c r="G17" t="n">
-        <v>255.7974370714587</v>
+        <v>364.3706797945755</v>
       </c>
       <c r="H17" t="n">
-        <v>179.9695016720908</v>
+        <v>189.6466618687773</v>
       </c>
       <c r="I17" t="n">
-        <v>50.97058912672954</v>
+        <v>159.5438318498464</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>97.59026292245596</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.7412145675516</v>
+        <v>158.0880118656858</v>
       </c>
       <c r="T17" t="n">
-        <v>170.8169945454376</v>
+        <v>172.1637918435718</v>
       </c>
       <c r="U17" t="n">
-        <v>199.0667978891428</v>
+        <v>200.4135951872769</v>
       </c>
       <c r="V17" t="n">
-        <v>275.4734034514412</v>
+        <v>276.8202007495753</v>
       </c>
       <c r="W17" t="n">
-        <v>296.9621136987193</v>
+        <v>298.3089109968535</v>
       </c>
       <c r="X17" t="n">
-        <v>317.4522456597753</v>
+        <v>318.7990429579095</v>
       </c>
       <c r="Y17" t="n">
-        <v>333.9590836373599</v>
+        <v>335.305880935494</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.2543286311736</v>
+        <v>115.6011259293078</v>
       </c>
       <c r="C18" t="n">
-        <v>120.429643969622</v>
+        <v>16.59080603433399</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>96.5130078440792</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>106.7130227348414</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>94.13715467282432</v>
       </c>
       <c r="G18" t="n">
-        <v>22.21965531438941</v>
+        <v>86.41145944265108</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>61.30338651593691</v>
       </c>
       <c r="I18" t="n">
-        <v>37.11777783272135</v>
+        <v>38.46457513085553</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.87897913394941</v>
+        <v>49.22577643208358</v>
       </c>
       <c r="S18" t="n">
-        <v>119.4043160851441</v>
+        <v>120.7511133832783</v>
       </c>
       <c r="T18" t="n">
-        <v>147.8858736761279</v>
+        <v>149.232670974262</v>
       </c>
       <c r="U18" t="n">
-        <v>173.6625270622811</v>
+        <v>69.82368912699307</v>
       </c>
       <c r="V18" t="n">
-        <v>180.5217321307316</v>
+        <v>76.68289419544352</v>
       </c>
       <c r="W18" t="n">
-        <v>199.4161281422259</v>
+        <v>108.1154179267618</v>
       </c>
       <c r="X18" t="n">
-        <v>153.4941301847838</v>
+        <v>154.8409274829179</v>
       </c>
       <c r="Y18" t="n">
-        <v>153.4038407586106</v>
+        <v>154.7506380567448</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.5531251632436</v>
+        <v>128.8999224613777</v>
       </c>
       <c r="C19" t="n">
-        <v>114.9679660799341</v>
+        <v>116.3147633780683</v>
       </c>
       <c r="D19" t="n">
-        <v>96.33661799951864</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.485678914782383</v>
+        <v>117.0589216378992</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7218720637632</v>
+        <v>111.29511478688</v>
       </c>
       <c r="I19" t="n">
-        <v>88.79742198537019</v>
+        <v>104.5184172066987</v>
       </c>
       <c r="J19" t="n">
-        <v>41.08032509797905</v>
+        <v>42.42712239611323</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.88318823300066</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>125.0145363584758</v>
+        <v>41.06121649991401</v>
       </c>
       <c r="S19" t="n">
-        <v>171.7377430182785</v>
+        <v>173.0845403164127</v>
       </c>
       <c r="T19" t="n">
-        <v>175.6667344095878</v>
+        <v>177.0135317077219</v>
       </c>
       <c r="U19" t="n">
-        <v>234.0401743377972</v>
+        <v>235.3869716359313</v>
       </c>
       <c r="V19" t="n">
-        <v>199.8587883051343</v>
+        <v>201.2055856032684</v>
       </c>
       <c r="W19" t="n">
-        <v>234.2441433178973</v>
+        <v>235.5909406160314</v>
       </c>
       <c r="X19" t="n">
-        <v>173.4308003703434</v>
+        <v>174.7775976684776</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.3057983334011</v>
+        <v>167.6525956315352</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>330.4549866447869</v>
+        <v>226.6161487094988</v>
       </c>
       <c r="C20" t="n">
-        <v>312.9940367523138</v>
+        <v>314.340834050448</v>
       </c>
       <c r="D20" t="n">
-        <v>207.9591334716645</v>
+        <v>303.7509839001234</v>
       </c>
       <c r="E20" t="n">
-        <v>329.6515150535681</v>
+        <v>330.9983123517022</v>
       </c>
       <c r="F20" t="n">
-        <v>354.5971907230177</v>
+        <v>355.9439880211519</v>
       </c>
       <c r="G20" t="n">
-        <v>363.0238824964413</v>
+        <v>364.3706797945755</v>
       </c>
       <c r="H20" t="n">
-        <v>287.1959470970734</v>
+        <v>288.5427443952076</v>
       </c>
       <c r="I20" t="n">
-        <v>158.1970345517122</v>
+        <v>54.35819661642417</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>97.59026292245596</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.51476914256897</v>
+        <v>158.0880118656858</v>
       </c>
       <c r="T20" t="n">
-        <v>63.59054912045498</v>
+        <v>73.2677093171415</v>
       </c>
       <c r="U20" t="n">
-        <v>91.84035246416012</v>
+        <v>200.4135951872769</v>
       </c>
       <c r="V20" t="n">
-        <v>275.4734034514412</v>
+        <v>276.8202007495753</v>
       </c>
       <c r="W20" t="n">
-        <v>296.9621136987193</v>
+        <v>298.3089109968535</v>
       </c>
       <c r="X20" t="n">
-        <v>317.4522456597753</v>
+        <v>318.7990429579095</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.9590836373599</v>
+        <v>335.305880935494</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.2543286311736</v>
+        <v>115.6011259293078</v>
       </c>
       <c r="C21" t="n">
-        <v>120.429643969622</v>
+        <v>121.7764412677562</v>
       </c>
       <c r="D21" t="n">
-        <v>95.16621054594503</v>
+        <v>96.5130078440792</v>
       </c>
       <c r="E21" t="n">
-        <v>105.3662254367072</v>
+        <v>106.7130227348414</v>
       </c>
       <c r="F21" t="n">
-        <v>92.79035737469016</v>
+        <v>94.13715467282432</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>86.41145944265108</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>61.30338651593691</v>
       </c>
       <c r="I21" t="n">
-        <v>37.11777783272135</v>
+        <v>38.46457513085553</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.87897913394941</v>
+        <v>49.22577643208358</v>
       </c>
       <c r="S21" t="n">
-        <v>62.75406889215639</v>
+        <v>120.7511133832783</v>
       </c>
       <c r="T21" t="n">
-        <v>40.65942825114523</v>
+        <v>44.04703574083986</v>
       </c>
       <c r="U21" t="n">
-        <v>173.6625270622811</v>
+        <v>175.0093243604153</v>
       </c>
       <c r="V21" t="n">
-        <v>73.29528670574889</v>
+        <v>181.8685294288657</v>
       </c>
       <c r="W21" t="n">
-        <v>199.4161281422259</v>
+        <v>95.57729020693786</v>
       </c>
       <c r="X21" t="n">
-        <v>153.4941301847838</v>
+        <v>49.65529224949573</v>
       </c>
       <c r="Y21" t="n">
-        <v>153.4038407586106</v>
+        <v>62.10313054314653</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.32667973826092</v>
+        <v>128.8999224613777</v>
       </c>
       <c r="C22" t="n">
-        <v>114.9679660799341</v>
+        <v>16.1650359287006</v>
       </c>
       <c r="D22" t="n">
-        <v>96.33661799951864</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.15510762787545</v>
+        <v>95.50190492600962</v>
       </c>
       <c r="F22" t="n">
-        <v>93.14219300423753</v>
+        <v>94.48899030237169</v>
       </c>
       <c r="G22" t="n">
-        <v>115.712124339765</v>
+        <v>117.0589216378992</v>
       </c>
       <c r="H22" t="n">
-        <v>109.9483174887459</v>
+        <v>6.109479553457831</v>
       </c>
       <c r="I22" t="n">
-        <v>103.1716199085646</v>
+        <v>104.5184172066987</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>42.42712239611323</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.88318823300066</v>
+        <v>35.22998553113484</v>
       </c>
       <c r="R22" t="n">
-        <v>125.0145363584758</v>
+        <v>21.17569842318774</v>
       </c>
       <c r="S22" t="n">
-        <v>171.7377430182785</v>
+        <v>173.0845403164127</v>
       </c>
       <c r="T22" t="n">
-        <v>175.6667344095878</v>
+        <v>177.0135317077219</v>
       </c>
       <c r="U22" t="n">
-        <v>234.0401743377972</v>
+        <v>235.3869716359313</v>
       </c>
       <c r="V22" t="n">
-        <v>199.8587883051343</v>
+        <v>201.2055856032684</v>
       </c>
       <c r="W22" t="n">
-        <v>180.8794152855517</v>
+        <v>235.5909406160314</v>
       </c>
       <c r="X22" t="n">
-        <v>66.20435494536078</v>
+        <v>174.7775976684776</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.07935290841841</v>
+        <v>167.6525956315352</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.68987277544448</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>61.22892288297146</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
-        <v>50.63907273264687</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E23" t="n">
-        <v>103.472363639791</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
         <v>317.4794128902964</v>
@@ -24226,7 +24226,7 @@
         <v>250.0781692643521</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>24.38611081588766</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>46.09267113224163</v>
       </c>
       <c r="X23" t="n">
         <v>280.334467827054</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>47.77921498907888</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>4.819046977981124</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>55.37284863175491</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>3.962547265257697</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>138.5489565768664</v>
@@ -24426,13 +24426,13 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>21.98039003349342</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67.9286714742164</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C26" t="n">
         <v>265.1150576183644</v>
       </c>
       <c r="D26" t="n">
-        <v>39.87787143141878</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E26" t="n">
-        <v>67.12519988299761</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F26" t="n">
-        <v>167.3681217965191</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G26" t="n">
-        <v>315.1449033624919</v>
+        <v>101.1753885596597</v>
       </c>
       <c r="H26" t="n">
-        <v>239.316967963124</v>
+        <v>25.34745316029182</v>
       </c>
       <c r="I26" t="n">
-        <v>110.3180554177628</v>
+        <v>30.7159422130304</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S26" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>122.9380154114882</v>
@@ -24505,7 +24505,7 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W26" t="n">
-        <v>249.0831345647699</v>
+        <v>35.11361976193768</v>
       </c>
       <c r="X26" t="n">
         <v>269.5732665258259</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>39.2098748527657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T27" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>125.7835479283317</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>71.71703332364194</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>48.45763886556922</v>
       </c>
       <c r="E28" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>45.26321387028811</v>
+        <v>25.77111661578302</v>
       </c>
       <c r="G28" t="n">
         <v>67.83314520581563</v>
@@ -24654,7 +24654,7 @@
         <v>123.8587638843291</v>
       </c>
       <c r="T28" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.42265941177618</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>265.1150576183644</v>
       </c>
       <c r="D29" t="n">
-        <v>39.87787143141878</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E29" t="n">
-        <v>281.7725359196186</v>
+        <v>67.80302111678645</v>
       </c>
       <c r="F29" t="n">
         <v>306.7182115890683</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>16.37068377738819</v>
+        <v>80.42722600153689</v>
       </c>
       <c r="T29" t="n">
         <v>122.9380154114882</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V29" t="n">
-        <v>12.94708828087073</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W29" t="n">
         <v>249.0831345647699</v>
       </c>
       <c r="X29" t="n">
-        <v>269.5732665258259</v>
+        <v>55.60375172299371</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.0801045034104</v>
+        <v>72.11058970057826</v>
       </c>
     </row>
     <row r="30">
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>34.4310616097051</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H30" t="n">
         <v>12.07761008385333</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.63942323978853</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T30" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U30" t="n">
-        <v>125.7835479283317</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.88968814735923</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D31" t="n">
         <v>48.45763886556922</v>
@@ -24852,13 +24852,13 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G31" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>62.06933835479644</v>
       </c>
       <c r="I31" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U31" t="n">
-        <v>186.1611952038477</v>
+        <v>115.8719391752239</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W31" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X31" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.4983974269841</v>
+        <v>54.28260439765671</v>
       </c>
       <c r="C32" t="n">
-        <v>253.0374475345111</v>
+        <v>250.7911693080158</v>
       </c>
       <c r="D32" t="n">
-        <v>27.80026134756548</v>
+        <v>182.41955430924</v>
       </c>
       <c r="E32" t="n">
-        <v>269.6949258357653</v>
+        <v>267.4486476092701</v>
       </c>
       <c r="F32" t="n">
-        <v>294.640601505215</v>
+        <v>292.3943232787198</v>
       </c>
       <c r="G32" t="n">
-        <v>88.41995724201757</v>
+        <v>300.8210150521434</v>
       </c>
       <c r="H32" t="n">
-        <v>227.2393578792707</v>
+        <v>224.9930796527754</v>
       </c>
       <c r="I32" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>94.53834712325363</v>
       </c>
       <c r="T32" t="n">
-        <v>18.58365709632807</v>
+        <v>108.6141271011396</v>
       </c>
       <c r="U32" t="n">
-        <v>139.11020867134</v>
+        <v>136.8639304448448</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>234.7592462544213</v>
       </c>
       <c r="X32" t="n">
-        <v>42.84832040535156</v>
+        <v>41.27986341264514</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0024944195571</v>
+        <v>271.7562161930618</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.29773941337088</v>
+        <v>52.05146118687563</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>28.71355898793</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>26.93655043276028</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>22.86179470021892</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.59653594544083</v>
+        <v>65.35025771894558</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>52.76509863563612</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.13375055522064</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>31.95224018357746</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.5999314246922509</v>
       </c>
       <c r="G34" t="n">
-        <v>37.80073437760559</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>109.5348755739805</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>174.2875541000946</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.4742111525407</v>
+        <v>111.2279329260454</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.1029308891031</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.8510613903631</v>
+        <v>268.2521192004889</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>250.7911693080158</v>
       </c>
       <c r="D35" t="n">
-        <v>242.4475973841865</v>
+        <v>240.2013191576912</v>
       </c>
       <c r="E35" t="n">
-        <v>269.6949258357653</v>
+        <v>199.5488209780689</v>
       </c>
       <c r="F35" t="n">
-        <v>294.640601505215</v>
+        <v>292.3943232787198</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>86.85150024931119</v>
       </c>
       <c r="H35" t="n">
-        <v>227.2393578792707</v>
+        <v>11.02356484994326</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>136.8639304448448</v>
       </c>
       <c r="V35" t="n">
-        <v>162.3295596911454</v>
+        <v>213.2705360071432</v>
       </c>
       <c r="W35" t="n">
-        <v>22.35818844429554</v>
+        <v>234.7592462544213</v>
       </c>
       <c r="X35" t="n">
-        <v>257.4956564419726</v>
+        <v>255.2493782154773</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.35515838293611</v>
+        <v>271.7562161930618</v>
       </c>
     </row>
     <row r="36">
@@ -25241,10 +25241,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>43.16335799240923</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>30.58748993039217</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>83.01129840130082</v>
+        <v>28.09895839705349</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>52.76509863563612</v>
       </c>
       <c r="D37" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>34.19851841007271</v>
+        <v>31.95224018357746</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.93932555993953</v>
       </c>
       <c r="G37" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9021990873316</v>
+        <v>117.8661467653455</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>172.0412758735993</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.50649016273161</v>
+        <v>104.1029308891031</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>307.6161752597055</v>
+        <v>306.7166943313444</v>
       </c>
       <c r="C38" t="n">
-        <v>290.1552253672324</v>
+        <v>289.2557444388714</v>
       </c>
       <c r="D38" t="n">
-        <v>279.5653752169079</v>
+        <v>64.69637948571457</v>
       </c>
       <c r="E38" t="n">
-        <v>92.16536763186565</v>
+        <v>305.9132227401256</v>
       </c>
       <c r="F38" t="n">
-        <v>117.1110433013153</v>
+        <v>116.8893836067431</v>
       </c>
       <c r="G38" t="n">
-        <v>340.1850711113599</v>
+        <v>339.2855901829989</v>
       </c>
       <c r="H38" t="n">
-        <v>264.357135711992</v>
+        <v>263.457654783631</v>
       </c>
       <c r="I38" t="n">
-        <v>135.3582231666308</v>
+        <v>134.4587422382697</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>74.75145153737458</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>92.81921276177079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>126.8282372296515</v>
       </c>
       <c r="U38" t="n">
-        <v>176.2279865040614</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>252.6345920663598</v>
+        <v>251.7351111379987</v>
       </c>
       <c r="W38" t="n">
-        <v>274.1233023136379</v>
+        <v>273.2238213852768</v>
       </c>
       <c r="X38" t="n">
-        <v>294.6134342746939</v>
+        <v>293.7139533463329</v>
       </c>
       <c r="Y38" t="n">
-        <v>96.47293621565746</v>
+        <v>310.2207913239174</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>97.59083258454064</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>72.32739916086365</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>42.84393095192515</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>37.11777783272136</v>
+        <v>36.21829690436029</v>
       </c>
       <c r="I39" t="n">
-        <v>14.27896644763997</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.04016774886803</v>
+        <v>24.14068682050696</v>
       </c>
       <c r="S39" t="n">
-        <v>96.56550470006272</v>
+        <v>95.66602377170165</v>
       </c>
       <c r="T39" t="n">
-        <v>125.0470622910465</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>149.9242347488386</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>176.5773167571445</v>
+        <v>110.257123703206</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>129.7558378713413</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>129.6655484451682</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.7143137781622</v>
+        <v>103.8148328498011</v>
       </c>
       <c r="C40" t="n">
-        <v>92.12915469485273</v>
+        <v>91.22967376649166</v>
       </c>
       <c r="D40" t="n">
-        <v>73.49780661443725</v>
+        <v>72.59832568607618</v>
       </c>
       <c r="E40" t="n">
-        <v>71.31629624279407</v>
+        <v>70.41681531443299</v>
       </c>
       <c r="F40" t="n">
-        <v>70.30338161915614</v>
+        <v>69.40390069079507</v>
       </c>
       <c r="G40" t="n">
-        <v>92.87331295468366</v>
+        <v>91.97383202632258</v>
       </c>
       <c r="H40" t="n">
-        <v>87.10950610366447</v>
+        <v>86.2100251753034</v>
       </c>
       <c r="I40" t="n">
-        <v>80.33280852348318</v>
+        <v>79.43332759512211</v>
       </c>
       <c r="J40" t="n">
-        <v>18.24151371289767</v>
+        <v>17.3420327845366</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.04437684791928</v>
+        <v>10.14489591955821</v>
       </c>
       <c r="R40" t="n">
-        <v>102.1757249733944</v>
+        <v>101.2762440450333</v>
       </c>
       <c r="S40" t="n">
-        <v>148.8989316331972</v>
+        <v>130.6304796333256</v>
       </c>
       <c r="T40" t="n">
-        <v>25.00431427365582</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>177.0199769200529</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>210.5058510044548</v>
       </c>
       <c r="X40" t="n">
-        <v>150.591988985262</v>
+        <v>149.692508056901</v>
       </c>
       <c r="Y40" t="n">
-        <v>143.4669869483197</v>
+        <v>142.5675060199586</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.3266659155461</v>
+        <v>329.4271849871849</v>
       </c>
       <c r="C41" t="n">
-        <v>312.865716023073</v>
+        <v>311.9662350947119</v>
       </c>
       <c r="D41" t="n">
-        <v>194.8549752611101</v>
+        <v>301.3763849443873</v>
       </c>
       <c r="E41" t="n">
-        <v>329.5231943243273</v>
+        <v>328.6237133959661</v>
       </c>
       <c r="F41" t="n">
-        <v>354.4688699937769</v>
+        <v>353.5693890654158</v>
       </c>
       <c r="G41" t="n">
-        <v>362.8955617672005</v>
+        <v>361.9960808388394</v>
       </c>
       <c r="H41" t="n">
-        <v>192.4513059171016</v>
+        <v>286.1681454394715</v>
       </c>
       <c r="I41" t="n">
-        <v>158.0687138224714</v>
+        <v>157.1692328941103</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.46194219321515</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>156.6128938383108</v>
+        <v>46.92953334053972</v>
       </c>
       <c r="T41" t="n">
-        <v>63.26778320455847</v>
+        <v>61.00531331842573</v>
       </c>
       <c r="U41" t="n">
-        <v>198.938477159902</v>
+        <v>90.00073680224862</v>
       </c>
       <c r="V41" t="n">
-        <v>275.3450827222004</v>
+        <v>274.4456017938393</v>
       </c>
       <c r="W41" t="n">
-        <v>296.8337929694785</v>
+        <v>295.9343120411174</v>
       </c>
       <c r="X41" t="n">
-        <v>317.3239249305345</v>
+        <v>316.4244440021734</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.4098722964807</v>
+        <v>332.931281979758</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.32670154702981</v>
+        <v>113.2265269735717</v>
       </c>
       <c r="C42" t="n">
-        <v>120.3013232403812</v>
+        <v>119.4018423120201</v>
       </c>
       <c r="D42" t="n">
-        <v>95.03788981670422</v>
+        <v>94.13840888834315</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>104.3384237791053</v>
       </c>
       <c r="F42" t="n">
-        <v>92.66203664544935</v>
+        <v>91.76255571708828</v>
       </c>
       <c r="G42" t="n">
-        <v>84.9363414152761</v>
+        <v>84.03686048691503</v>
       </c>
       <c r="H42" t="n">
-        <v>59.82826848856194</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.98945710348055</v>
+        <v>36.08997617511947</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.75065840470861</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>119.2759953559033</v>
+        <v>9.5926348581322</v>
       </c>
       <c r="T42" t="n">
-        <v>40.33666233524872</v>
+        <v>146.858072018526</v>
       </c>
       <c r="U42" t="n">
-        <v>66.11331572140193</v>
+        <v>63.8508458352692</v>
       </c>
       <c r="V42" t="n">
-        <v>180.3934114014907</v>
+        <v>80.67317481553171</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2878074129851</v>
+        <v>198.388326484624</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3658094555429</v>
+        <v>152.4663285271819</v>
       </c>
       <c r="Y42" t="n">
-        <v>153.2755200293698</v>
+        <v>152.3760391010088</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.4248044340028</v>
+        <v>126.5253235056417</v>
       </c>
       <c r="C43" t="n">
-        <v>114.8396453506933</v>
+        <v>113.9401644223322</v>
       </c>
       <c r="D43" t="n">
-        <v>96.20829727027782</v>
+        <v>95.30881634191675</v>
       </c>
       <c r="E43" t="n">
-        <v>94.02678689863464</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>93.01387227499671</v>
+        <v>92.11439134663564</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5838036105242</v>
+        <v>5.900443112753138</v>
       </c>
       <c r="H43" t="n">
-        <v>109.819996759505</v>
+        <v>108.920515831144</v>
       </c>
       <c r="I43" t="n">
-        <v>103.0432991793238</v>
+        <v>102.1438182509627</v>
       </c>
       <c r="J43" t="n">
-        <v>40.95200436873825</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.75486750375986</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>124.886215629235</v>
+        <v>123.9867347008739</v>
       </c>
       <c r="S43" t="n">
-        <v>171.6094222890377</v>
+        <v>170.7099413606767</v>
       </c>
       <c r="T43" t="n">
-        <v>68.11752306870861</v>
+        <v>136.0734280438891</v>
       </c>
       <c r="U43" t="n">
-        <v>233.9118536085564</v>
+        <v>233.0123726801953</v>
       </c>
       <c r="V43" t="n">
-        <v>199.7304675758935</v>
+        <v>198.8309866475324</v>
       </c>
       <c r="W43" t="n">
-        <v>126.6949319770181</v>
+        <v>233.2163416602954</v>
       </c>
       <c r="X43" t="n">
-        <v>65.88158902946427</v>
+        <v>63.61911914333153</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.56115715342922</v>
+        <v>165.2779966757992</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.3266659155461</v>
+        <v>220.643305417775</v>
       </c>
       <c r="C44" t="n">
-        <v>312.865716023073</v>
+        <v>311.9662350947119</v>
       </c>
       <c r="D44" t="n">
-        <v>302.2758658727485</v>
+        <v>301.3763849443873</v>
       </c>
       <c r="E44" t="n">
-        <v>329.5231943243273</v>
+        <v>219.8398338265562</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4688699937769</v>
+        <v>353.5693890654158</v>
       </c>
       <c r="G44" t="n">
-        <v>255.4746711555622</v>
+        <v>253.2122012694294</v>
       </c>
       <c r="H44" t="n">
-        <v>287.0676263678326</v>
+        <v>190.3513043147352</v>
       </c>
       <c r="I44" t="n">
-        <v>158.0687138224714</v>
+        <v>157.1692328941103</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.845621742484141</v>
+        <v>96.56246126485408</v>
       </c>
       <c r="S44" t="n">
-        <v>49.19200322667245</v>
+        <v>155.7134129099497</v>
       </c>
       <c r="T44" t="n">
-        <v>170.6886738161968</v>
+        <v>169.7891928878358</v>
       </c>
       <c r="U44" t="n">
-        <v>91.51758654826361</v>
+        <v>198.0389962315409</v>
       </c>
       <c r="V44" t="n">
-        <v>275.3450827222003</v>
+        <v>274.4456017938393</v>
       </c>
       <c r="W44" t="n">
-        <v>296.8337929694785</v>
+        <v>295.9343120411174</v>
       </c>
       <c r="X44" t="n">
-        <v>317.3239249305345</v>
+        <v>316.4244440021734</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.830762908119</v>
+        <v>332.931281979758</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.50968745120177</v>
+        <v>113.2265269735717</v>
       </c>
       <c r="C45" t="n">
-        <v>120.3013232403812</v>
+        <v>119.4018423120201</v>
       </c>
       <c r="D45" t="n">
-        <v>95.03788981670422</v>
+        <v>45.17274523995436</v>
       </c>
       <c r="E45" t="n">
-        <v>105.2379047074664</v>
+        <v>104.3384237791053</v>
       </c>
       <c r="F45" t="n">
-        <v>92.66203664544935</v>
+        <v>91.76255571708828</v>
       </c>
       <c r="G45" t="n">
-        <v>84.9363414152761</v>
+        <v>84.03686048691503</v>
       </c>
       <c r="H45" t="n">
-        <v>59.82826848856193</v>
+        <v>58.92878756020085</v>
       </c>
       <c r="I45" t="n">
-        <v>36.98945710348055</v>
+        <v>36.08997617511947</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.7506584047086</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>119.2759953559033</v>
+        <v>118.3765144275422</v>
       </c>
       <c r="T45" t="n">
-        <v>147.7575529468871</v>
+        <v>146.858072018526</v>
       </c>
       <c r="U45" t="n">
-        <v>173.5342063330403</v>
+        <v>172.6347254046792</v>
       </c>
       <c r="V45" t="n">
-        <v>180.3934114014907</v>
+        <v>70.71005090371968</v>
       </c>
       <c r="W45" t="n">
-        <v>91.86691680134672</v>
+        <v>198.388326484624</v>
       </c>
       <c r="X45" t="n">
-        <v>45.94491884390459</v>
+        <v>43.68244895777188</v>
       </c>
       <c r="Y45" t="n">
-        <v>45.85462941773147</v>
+        <v>43.59215953159877</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.80848398327173</v>
+        <v>17.7414439362317</v>
       </c>
       <c r="C46" t="n">
-        <v>114.8396453506933</v>
+        <v>5.156284852922241</v>
       </c>
       <c r="D46" t="n">
-        <v>96.20829727027782</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>94.02678689863464</v>
+        <v>93.12730597027357</v>
       </c>
       <c r="F46" t="n">
-        <v>93.01387227499671</v>
+        <v>92.11439134663564</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5838036105242</v>
+        <v>114.6843226821632</v>
       </c>
       <c r="H46" t="n">
-        <v>109.819996759505</v>
+        <v>108.920515831144</v>
       </c>
       <c r="I46" t="n">
-        <v>103.0432991793238</v>
+        <v>102.1438182509627</v>
       </c>
       <c r="J46" t="n">
-        <v>40.95200436873824</v>
+        <v>40.05252344037716</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.75486750375985</v>
+        <v>32.85538657539878</v>
       </c>
       <c r="R46" t="n">
-        <v>124.886215629235</v>
+        <v>123.9867347008739</v>
       </c>
       <c r="S46" t="n">
-        <v>64.18853167739937</v>
+        <v>170.7099413606767</v>
       </c>
       <c r="T46" t="n">
-        <v>68.11752306870861</v>
+        <v>174.6389327519859</v>
       </c>
       <c r="U46" t="n">
-        <v>233.9118536085564</v>
+        <v>233.0123726801953</v>
       </c>
       <c r="V46" t="n">
-        <v>199.7304675758935</v>
+        <v>198.8309866475324</v>
       </c>
       <c r="W46" t="n">
-        <v>234.1158225886565</v>
+        <v>233.2163416602954</v>
       </c>
       <c r="X46" t="n">
-        <v>173.3024796411026</v>
+        <v>63.61911914333156</v>
       </c>
       <c r="Y46" t="n">
-        <v>58.7565869925219</v>
+        <v>164.7699718929796</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440322.8510527103</v>
+        <v>436325.6667455913</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440322.8510527103</v>
+        <v>436325.6667455913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580362.2879330321</v>
+        <v>579966.5550179353</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>602397.062839936</v>
+        <v>602001.3299248391</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>602397.0628399361</v>
+        <v>602001.3299248391</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>626703.1062699524</v>
+        <v>630749.4061585709</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626703.1062699524</v>
+        <v>630749.4061585711</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550617.1071929868</v>
+        <v>552095.2052212269</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440703.6964894439</v>
+        <v>443373.2823702432</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440703.6964894438</v>
+        <v>443373.2823702432</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="E2" t="n">
         <v>227209.6859961221</v>
@@ -26328,34 +26328,34 @@
         <v>227209.6859961221</v>
       </c>
       <c r="G2" t="n">
-        <v>372571.1514825977</v>
+        <v>368531.6012961031</v>
       </c>
       <c r="H2" t="n">
-        <v>372571.1514825979</v>
+        <v>368531.601296103</v>
       </c>
       <c r="I2" t="n">
-        <v>506312.3411177297</v>
+        <v>506015.4904742445</v>
       </c>
       <c r="J2" t="n">
-        <v>531017.9978315315</v>
+        <v>530721.147188046</v>
       </c>
       <c r="K2" t="n">
-        <v>531017.9978315315</v>
+        <v>530721.1471880464</v>
       </c>
       <c r="L2" t="n">
-        <v>558270.228343974</v>
+        <v>562953.8387228362</v>
       </c>
       <c r="M2" t="n">
-        <v>558270.2283439741</v>
+        <v>562953.8387228356</v>
       </c>
       <c r="N2" t="n">
-        <v>472961.6839243445</v>
+        <v>474765.7952476319</v>
       </c>
       <c r="O2" t="n">
-        <v>372956.0334737141</v>
+        <v>375653.9141102019</v>
       </c>
       <c r="P2" t="n">
-        <v>372956.0334737141</v>
+        <v>375653.9141102019</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61652.81282557135</v>
+        <v>60016.01952571015</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58259.69291851459</v>
+        <v>59699.57814366151</v>
       </c>
       <c r="J3" t="n">
         <v>18168.39252467246</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41925.74059834763</v>
+        <v>42645.32534103649</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>103481.2608804273</v>
       </c>
       <c r="G4" t="n">
-        <v>184570.6285284141</v>
+        <v>182231.223888226</v>
       </c>
       <c r="H4" t="n">
-        <v>184570.6285284141</v>
+        <v>182231.223888226</v>
       </c>
       <c r="I4" t="n">
-        <v>258970.5651918706</v>
+        <v>258839.099805427</v>
       </c>
       <c r="J4" t="n">
-        <v>274240.4234495931</v>
+        <v>274108.9580631495</v>
       </c>
       <c r="K4" t="n">
-        <v>274240.4234495931</v>
+        <v>274108.9580631496</v>
       </c>
       <c r="L4" t="n">
-        <v>291086.1063455866</v>
+        <v>294033.3575387937</v>
       </c>
       <c r="M4" t="n">
-        <v>291086.1063455866</v>
+        <v>294033.3575387937</v>
       </c>
       <c r="N4" t="n">
-        <v>238364.2556964524</v>
+        <v>239530.8448801866</v>
       </c>
       <c r="O4" t="n">
-        <v>184793.523324709</v>
+        <v>186355.9335407703</v>
       </c>
       <c r="P4" t="n">
-        <v>184793.523324709</v>
+        <v>186355.9335407703</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>1004.56480675292</v>
       </c>
       <c r="G5" t="n">
-        <v>10914.39894440551</v>
+        <v>10677.09378270179</v>
       </c>
       <c r="H5" t="n">
-        <v>10914.39894440551</v>
+        <v>10677.09378270179</v>
       </c>
       <c r="I5" t="n">
-        <v>20566.04355821217</v>
+        <v>20524.83202719781</v>
       </c>
       <c r="J5" t="n">
-        <v>21470.72699040511</v>
+        <v>21429.51545939075</v>
       </c>
       <c r="K5" t="n">
-        <v>21470.72699040511</v>
+        <v>21429.51545939075</v>
       </c>
       <c r="L5" t="n">
-        <v>22486.07959254458</v>
+        <v>22633.71042575344</v>
       </c>
       <c r="M5" t="n">
-        <v>22486.07959254458</v>
+        <v>22633.71042575344</v>
       </c>
       <c r="N5" t="n">
-        <v>19365.62512792553</v>
+        <v>19400.03205907756</v>
       </c>
       <c r="O5" t="n">
-        <v>10937.00900714072</v>
+        <v>11095.49719793963</v>
       </c>
       <c r="P5" t="n">
-        <v>10937.00900714072</v>
+        <v>11095.49719793962</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293304.5038705845</v>
+        <v>293260.3680919036</v>
       </c>
       <c r="C6" t="n">
-        <v>293304.5038705845</v>
+        <v>293260.3680919035</v>
       </c>
       <c r="D6" t="n">
-        <v>293304.5038705848</v>
+        <v>293260.3680919035</v>
       </c>
       <c r="E6" t="n">
-        <v>113164.4288252519</v>
+        <v>98779.18690286434</v>
       </c>
       <c r="F6" t="n">
-        <v>122723.8603089419</v>
+        <v>108338.6183865543</v>
       </c>
       <c r="G6" t="n">
-        <v>115433.3111842068</v>
+        <v>105041.5334014014</v>
       </c>
       <c r="H6" t="n">
-        <v>177086.1240097783</v>
+        <v>165057.5529271115</v>
       </c>
       <c r="I6" t="n">
-        <v>168516.0394491323</v>
+        <v>160102.0305884928</v>
       </c>
       <c r="J6" t="n">
-        <v>217138.4548668608</v>
+        <v>210832.0516830923</v>
       </c>
       <c r="K6" t="n">
-        <v>235306.8473915332</v>
+        <v>229000.444207765</v>
       </c>
       <c r="L6" t="n">
-        <v>202772.3018074952</v>
+        <v>198330.3697847762</v>
       </c>
       <c r="M6" t="n">
-        <v>244698.0424058429</v>
+        <v>240975.6951258121</v>
       </c>
       <c r="N6" t="n">
-        <v>215231.8030999666</v>
+        <v>208140.3820414264</v>
       </c>
       <c r="O6" t="n">
-        <v>177225.5011418644</v>
+        <v>167829.2476143498</v>
       </c>
       <c r="P6" t="n">
-        <v>177225.5011418644</v>
+        <v>167829.2476143498</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>11.94928935461252</v>
       </c>
       <c r="G2" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H2" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26715,19 +26715,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="L2" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="M2" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="N2" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="P2" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="H4" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="I4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="J4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="K4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="L4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="M4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N4" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O4" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="P4" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
     </row>
   </sheetData>
@@ -26922,22 +26922,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40.32956566408121</v>
+        <v>38.98276836594703</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37.11777783272135</v>
+        <v>38.46457513085553</v>
       </c>
       <c r="J2" t="n">
-        <v>22.71049065584058</v>
+        <v>22.71049065584057</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.40717574793454</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.4208906116384</v>
+        <v>108.7838795694101</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,16 +27159,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.32956566408121</v>
+        <v>38.98276836594703</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>37.11777783272135</v>
+        <v>38.46457513085553</v>
       </c>
       <c r="O2" t="n">
-        <v>22.71049065584058</v>
+        <v>22.71049065584057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y17" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="K19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="L19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="M19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="N19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="O19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="P19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="R19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y21" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="C22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="D22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="E22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="F22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="G22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="H22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="I22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="J22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="K22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="L22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="M22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="N22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="O22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="P22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="R22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="S22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="T22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="U22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="V22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="W22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="X22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.27885501869373</v>
+        <v>50.93205772055955</v>
       </c>
     </row>
     <row r="23">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="I32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="S32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="33">
@@ -29827,22 +29827,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y33" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="I34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="J34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="K34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="L34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="M34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="N34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="O34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="P34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="R34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="S34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="I35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="S35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="36">
@@ -30064,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="C37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="D37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="E37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="F37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="H37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="I37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="J37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="K37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="L37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="M37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="N37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="O37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="P37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Q37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="R37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="S37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="T37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="U37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="V37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="W37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="X37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.2354442364965</v>
+        <v>114.4817224629917</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="C38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="D38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="E38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="F38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="G38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="H38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="I38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="S38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="T38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="U38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="V38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="W38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="X38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="Y38" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="C39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="D39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="E39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="F39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="G39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="H39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="I39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="S39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="T39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="U39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="V39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="W39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="X39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="C40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="D40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="E40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="F40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="G40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="H40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="I40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="J40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="K40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="L40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="M40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="N40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="O40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="P40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="R40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="S40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="T40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="U40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="V40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="W40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="X40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.1176664037751</v>
+        <v>76.01714733213618</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y41" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="K43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="L43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="M43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="N43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="O43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="P43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="R43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.40717574793452</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y44" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="C46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="D46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="E46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="F46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="G46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="H46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="I46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="J46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="K46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="L46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="M46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="N46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="O46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="P46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="R46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="S46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="T46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="U46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="V46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="W46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="X46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.40717574793453</v>
+        <v>53.30665667629561</v>
       </c>
     </row>
   </sheetData>
@@ -35889,16 +35889,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>107.2264454249827</v>
+        <v>11.50007186855126</v>
       </c>
       <c r="N17" t="n">
-        <v>15.4992352742354</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>107.2264454249827</v>
+        <v>30.84019692769882</v>
       </c>
       <c r="L18" t="n">
-        <v>32.79855014182249</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="O18" t="n">
-        <v>107.2264454249827</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.00936319281087</v>
+        <v>28.6625658946767</v>
       </c>
       <c r="L19" t="n">
-        <v>79.86888027900986</v>
+        <v>78.52208298087569</v>
       </c>
       <c r="M19" t="n">
-        <v>91.86273198053431</v>
+        <v>90.51593468240014</v>
       </c>
       <c r="N19" t="n">
-        <v>96.41102739792231</v>
+        <v>95.06423009978815</v>
       </c>
       <c r="O19" t="n">
-        <v>76.86398293273339</v>
+        <v>75.51718563459923</v>
       </c>
       <c r="P19" t="n">
-        <v>49.55741428358721</v>
+        <v>48.21061698545304</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>12.32835137543694</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>107.2264454249827</v>
+        <v>11.50007186855126</v>
       </c>
       <c r="N20" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="O20" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="L21" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="M21" t="n">
-        <v>107.2264454249827</v>
+        <v>100.9357105775264</v>
       </c>
       <c r="N21" t="n">
-        <v>107.2264454249827</v>
+        <v>105.1856352334222</v>
       </c>
       <c r="O21" t="n">
-        <v>102.8940637916501</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.00936319281087</v>
+        <v>28.6625658946767</v>
       </c>
       <c r="L22" t="n">
-        <v>79.86888027900986</v>
+        <v>78.52208298087569</v>
       </c>
       <c r="M22" t="n">
-        <v>91.86273198053431</v>
+        <v>90.51593468240014</v>
       </c>
       <c r="N22" t="n">
-        <v>96.41102739792231</v>
+        <v>95.06423009978815</v>
       </c>
       <c r="O22" t="n">
-        <v>76.86398293273339</v>
+        <v>75.51718563459923</v>
       </c>
       <c r="P22" t="n">
-        <v>49.55741428358721</v>
+        <v>48.21061698545304</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4.173045818891599</v>
+        <v>92.73268125025486</v>
       </c>
       <c r="L23" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36375,7 +36375,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="M24" t="n">
-        <v>166.0381775599641</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N24" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O24" t="n">
-        <v>214.647336036621</v>
+        <v>8.60497019345847</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>4.173045818891599</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>80.0062068883208</v>
       </c>
       <c r="M26" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="M27" t="n">
-        <v>166.0381775599641</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N27" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O27" t="n">
-        <v>214.647336036621</v>
+        <v>205.3242818815057</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>82.01228387317062</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>48.81337714891616</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36916,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="M30" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N30" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O30" t="n">
-        <v>9.255404710730394</v>
+        <v>8.60497019345847</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4.173045818891599</v>
+        <v>2.16696883404179</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>166.0381775599641</v>
+        <v>164.7099218089033</v>
       </c>
       <c r="N33" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O33" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.87626411982369</v>
+        <v>21.12254234631894</v>
       </c>
       <c r="K34" t="n">
-        <v>89.96595241061361</v>
+        <v>92.21223063710886</v>
       </c>
       <c r="L34" t="n">
-        <v>139.8254694968126</v>
+        <v>142.0717477233079</v>
       </c>
       <c r="M34" t="n">
-        <v>151.819321198337</v>
+        <v>154.0655994248323</v>
       </c>
       <c r="N34" t="n">
-        <v>156.3676166157251</v>
+        <v>158.6138948422203</v>
       </c>
       <c r="O34" t="n">
-        <v>136.8205721505361</v>
+        <v>139.0668503770314</v>
       </c>
       <c r="P34" t="n">
-        <v>109.51400350139</v>
+        <v>111.7602817278852</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.07340098480208</v>
+        <v>28.31967921129733</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>4.173045818891599</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>106.0452681232508</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="M36" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N36" t="n">
-        <v>214.647336036621</v>
+        <v>164.7099218089033</v>
       </c>
       <c r="O36" t="n">
-        <v>214.647336036621</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>9.255404710730394</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.87626411982369</v>
+        <v>21.12254234631894</v>
       </c>
       <c r="K37" t="n">
-        <v>89.96595241061361</v>
+        <v>92.21223063710886</v>
       </c>
       <c r="L37" t="n">
-        <v>139.8254694968126</v>
+        <v>142.0717477233079</v>
       </c>
       <c r="M37" t="n">
-        <v>151.819321198337</v>
+        <v>154.0655994248323</v>
       </c>
       <c r="N37" t="n">
-        <v>156.3676166157251</v>
+        <v>158.6138948422203</v>
       </c>
       <c r="O37" t="n">
-        <v>136.8205721505361</v>
+        <v>139.0668503770314</v>
       </c>
       <c r="P37" t="n">
-        <v>109.51400350139</v>
+        <v>111.7602817278852</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.07340098480208</v>
+        <v>28.31967921129733</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>205.3305327455415</v>
+        <v>112.0809221106899</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37560,7 +37560,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>39.41437952174456</v>
+        <v>20.83592065589868</v>
       </c>
       <c r="M39" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="O39" t="n">
-        <v>214.647336036621</v>
+        <v>213.9695148028322</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>52.84817457789225</v>
+        <v>53.74765550625332</v>
       </c>
       <c r="L40" t="n">
-        <v>102.7076916640912</v>
+        <v>103.6071725924523</v>
       </c>
       <c r="M40" t="n">
-        <v>114.7015433656157</v>
+        <v>115.6010242939768</v>
       </c>
       <c r="N40" t="n">
-        <v>119.2498387830037</v>
+        <v>120.1493197113648</v>
       </c>
       <c r="O40" t="n">
-        <v>99.70279431781478</v>
+        <v>100.6022752461759</v>
       </c>
       <c r="P40" t="n">
-        <v>72.39622566866859</v>
+        <v>73.29570659702966</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>12.51494019091461</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="M41" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="O41" t="n">
-        <v>107.4208906116384</v>
+        <v>104.3885713039793</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="M42" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>34.29305765415171</v>
       </c>
       <c r="O42" t="n">
-        <v>32.98513895730016</v>
+        <v>108.78387956941</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.13768392205167</v>
+        <v>31.03716485041276</v>
       </c>
       <c r="L43" t="n">
-        <v>79.99720100825067</v>
+        <v>80.89668193661174</v>
       </c>
       <c r="M43" t="n">
-        <v>91.99105270977512</v>
+        <v>92.89053363813619</v>
       </c>
       <c r="N43" t="n">
-        <v>96.53934812716312</v>
+        <v>97.4388290555242</v>
       </c>
       <c r="O43" t="n">
-        <v>76.9923036619742</v>
+        <v>77.89178459033528</v>
       </c>
       <c r="P43" t="n">
-        <v>49.68573501282801</v>
+        <v>50.5852159411891</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="N44" t="n">
-        <v>15.88026927636878</v>
+        <v>0.3330097777950873</v>
       </c>
       <c r="O44" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>34.29305765415174</v>
       </c>
       <c r="L45" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>107.4208906116384</v>
+        <v>108.78387956941</v>
       </c>
       <c r="N45" t="n">
-        <v>103.0806526071277</v>
+        <v>108.78387956941</v>
       </c>
       <c r="O45" t="n">
-        <v>107.4208906116384</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>108.78387956941</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>30.13768392205168</v>
+        <v>31.03716485041276</v>
       </c>
       <c r="L46" t="n">
-        <v>79.99720100825067</v>
+        <v>80.89668193661174</v>
       </c>
       <c r="M46" t="n">
-        <v>91.99105270977512</v>
+        <v>92.89053363813619</v>
       </c>
       <c r="N46" t="n">
-        <v>96.53934812716312</v>
+        <v>97.4388290555242</v>
       </c>
       <c r="O46" t="n">
-        <v>76.9923036619742</v>
+        <v>77.89178459033528</v>
       </c>
       <c r="P46" t="n">
-        <v>49.68573501282802</v>
+        <v>50.5852159411891</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
